--- a/finetuning/it_datasets/qa_dataset/qa_it_ksar hellal_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_ksar hellal_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA80"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -663,12 +668,59 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're looking for a great cafe, check out Cafe de l'Excellence located at MV5R+67F Cafe de l'Excellence, Av. Habib Bourguiba, Ksar Hellal. This top-rated destination is perfect for cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775.</t>
+          <t>Cafe de l'Excellence is a cafe located in Ksar Hellal, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (35.664361783147, 10.870534903775) and has a 4.5 rating on Google.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe (4.5 stars) with 24-hour service, conveniently accessible at its location in Ksar Hellal?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Hellal, a charming town with historical landmarks and bustling markets.
+Mid-Morning: Try local cuisine at Chaneb Food shnb fwd, a popular spot for traditional Tunisian dishes.
+Midday: Visit Maison de Congrès, a museum showcasing the rich history and culture of Ksar Hellal.
+Afternoon: Relax with a cup of tea and pastries at Down Town, a cozy tea room known for its delicious treats.
+Evening: Enjoy a romantic dinner at Soltane Elchem, a family restaurant offering a cozy ambiance and delectable food.
+Night: Experience cultural immersion at Jus becha, a restaurant offering authentic Tunisian cuisine and live music.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mosaique, located in Ksar Hellal (35.6447353, 10.8880694), is a highly-rated cafe with a 5.0 rating based on one review. It's conveniently situated at MV2W+73, making it easily accessible to locals and visitors alike. Despite limited information available, Cafe Mosaique has established itself as a popular spot for coffee lovers.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -770,12 +822,59 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you find yourself in ksar hellal seeking an enjoyable experience, visit Cafe Delice in MV3J+7FR, Ksar Hellal. Renowned for its Cafe offerings, it's a hotspot for Cafe enthusiasts. Boasting a 4.1 rating, it's highly recommended. Their hours of operation are from 06:00-23:30, but they are closed on []. For directions, use the GPS coordinates (35.6447353, 10.8880694).</t>
+          <t>Cafe Delice is a cafe located in Ksar Hellal, Tunisia at the coordinates (35.6447353, 10.8880694). It is highly rated with 4.1 stars and has received 18 reviews. Unfortunately, there is no available information about its website, description, or contact information like phone number.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly recommended Cafe with a 4.1 rating and enjoy a leisurely experience from early morning until late evening?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Ksar Hellal garden.
+Mid-Morning: Try local cuisine at the highly-rated restaurant, Dreams Food.
+Midday: Visit the historical Maison de Congrès museum.
+Afternoon: Enjoy tea and pastries at the popular Down Town tea room.
+Evening: Have dinner at the highly-rated pizzeria, Target Pizza.
+Night: Relax with a night walk and stargazing at a scenic spot.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Kuriat is a cafe located in Ksar Hellal, Tunisia. It offers a 4.2-star rating and is open from 6:30am to 12:00pm. It is situated at coordinates (35.664361783147, 10.870534903775).
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -877,14 +976,59 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Hugo Said located at MV3Q+7Q4 Cafe Hugo Said, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe and Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>Cafe Hugo Said is a highly-rated cafe located in Ksar Hellal, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is known for its friendly staff and relaxed atmosphere, and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe open 24/7 in Ksar Hellal, perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical Maison de Congrès museum to learn about the local history and culture.
+Mid-Morning: Visit Ksar hellal, a beautiful garden with stunning views, perfect for a leisurely stroll or picnic.
+Midday: Try local cuisine at Chaneb Food shnb fwd, a highly-rated fast-food restaurant serving authentic Tunisian dishes.
+Afternoon: Enjoy a relaxing tea and pastries at Down Town, a popular tea room with a cozy ambiance and delicious treats.
+Evening: Experience the vibrant ambiance at Gracia's, a highly-rated creperie known for its delicious crepes and waffles.
+Night: Take a guided tour of SULTANE EL CHAM, a popular pizzeria offering a cozy ambiance and delicious food.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Prestige is a cafe located in Ksar Hellal, Tunisia. It is a 5-star-rated cafe that serves its customers from 4:30 AM to midnight. It offers various services and products, making it an ideal place to relax and enjoy.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Jus becha is a restaurant in ksar hellal located at the following address MV2P+3RJ Jus becha, Av. Des Nations Unis, Ksar Hellal. The restaurant is open from 08:30-20:00 and is closed on . Jus becha got a rating of 5.0 and 6 reviews.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -986,12 +1130,59 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe le colisee located at Av. Habib bourguiba, Ksar Hellal. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 03:00-00:00. To get there, use these GPS coordinates: 35.6462461, 10.886155. For more details, visit their website at or call them at .</t>
+          <t>Café Le Colisée is a highly-rated café located in Ksar Hellal, Tunisia. Open from 3 AM to midnight every day, it offers a cozy ambiance and a welcoming atmosphere.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a popular and top-rated cafe in Ksar Hellal, Tunisia, that serves a variety of coffee options?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès to immerse yourself in the history and culture of the region.
+Mid-Morning: Visit Cafe de l'Excellence for some local flavor and savor the ambiance of Ksar Hellal.
+Midday: Try the delicious pizzas at SULTANE EL CHAM and experience their renowned customer service.
+Afternoon: Enjoy the serene beauty of Ksar hellal garden, soaking in the natural splendor of the area.
+Evening: Indulge in the grilled delights at Papa Grill, known for its culinary expertise.
+Night: Relax and unwind at Down Town tea room, sipping on their delightful tea and enjoying the cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de l'Excellence is a 4.5-rated cafe located in Ksar Hellal, offering around-the-clock service. It features a prime location at Av. Habib Bourguiba, making it easily accessible to both locals and visitors. Cafe de l'Excellence  is positioned at coordinates (35.664361783147, 10.870534903775), offering a convenient destination for coffee lovers and those seeking a pleasant ambiance.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating based on one review and offers 24 hour service.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1097,14 +1288,59 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated cafe, check out Cafe Prestige located at MV5G+H2V Cafe Prestige, Av. Habib bourguiba, Ksar Hellal. 
-This destination is perfect for cafe lovers and offers a range of cafe categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-00:00. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website or call them at 93 795 056.</t>
+          <t>Cafe Prestige is a cafe located in Ksar Hellal, Tunisia. It is a 5-star-rated cafe that serves its customers from 4:30 AM to midnight. It offers various services and products, making it an ideal place to relax and enjoy.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a top-rated cafe, complete with its exact location and high ratings?</t>
+          <t>Day Plan:
+Morning: Explore the historic Maison de Congrès museum, showcasing cultural and historical exhibits.
+Mid-Morning: Visit the Ksar hellal garden for a tranquil walk amidst lush greenery.
+Midday: Indulge in a local culinary experience at Restaurant Al Moulouk, renowned for its traditional dishes.
+Afternoon: Explore the vibrant produce and local goods at the bustling OLA Petrol Station market.
+Evening: Enjoy a cozy dining experience at Soltane Elchem, a family-owned restaurant offering a warm ambiance and delicious cuisine.
+Night: Relax and unwind at the Down Town tea room, known for its aromatic teas and delectable pastries.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Ksar Hellal, cafe.te.ria Boughzala is a cafe open from 6 AM til 10 PM. Being one of the most visited places of the city with 1 review and a rating of 5.0, it offers you a great time and a pleasant moment to enjoy with friends and family.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Restaurant Al Moulouk is a restaurant located in Ksar Hellal (35.664362, 10.870535). It has an average rating of 4.0 out of 5 based on 18 reviews. The restaurant is open from 9:00 AM to 10:00 PM, 7 days a week.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1446,59 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out cafe.te.ria Boughzala located at MV3C+2JW cafe.te.ria Boughzala, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9.te.ria+Boughzala/data=!4m7!3m6!1s0x130211c3033024c5:0xff901db07e5c608e!8m2!3d35.6526165!4d10.8715832!16s%2Fg%2F11h144br6x!19sChIJxSQwA8MRAhMRjmBcfrAdkP8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 394 201.</t>
+          <t>Located in Ksar Hellal at the coordinates (35.6447353, 10.8880694), Cafe.te.ria Boughzala is a cafe with a 5.0 rating. It offers a wide range of services and products, including sitting areas, a cozy atmosphere, and delicious coffee and snacks.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Question: If you're seeking a highly-rated destination in Ksar Hellal known for its exceptional offerings in a specific cuisine, what is its name and what GPS coordinates would you use to locate it?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful garden at Ksar Hellal, enjoying the serene atmosphere and lush greenery.
+Mid-Morning: Head to Gracia's creperie for a delightful breakfast of freshly made crepes and waffles.
+Midday: Visit the Maison de Congres museum to immerse yourself in local history and culture, admiring the fascinating exhibits.
+Afternoon: Indulge in a traditional Tunisian lunch at Chaneb Food, savoring the authentic flavors and enjoying the friendly ambiance.
+Evening: Experience the vibrant nightlife at Down Town tea room, sipping on aromatic teas and indulging in delectable pastries.
+Night: Enjoy a cozy dinner at the highly-rated Soltane Elchem restaurant, relishing the delicious food and warm hospitality.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Prestige located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775). This popular cafe has garnered excellent feedback, boasting a 5-star rating.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Restaurant Ezzarda is located in Ksar Hellal. Restaurant Ezzarda has gotten 27 reviews and is rated 4.4 out of 5 stars. Restaurant Ezzarda is in the category of Restaurant and offers a variety of services and amenities. Restaurant Ezzarda's coordinates are (35.6447353, 10.8880694). Restaurant Ezzarda is a popular spot for locals and tourists alike.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1600,59 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Gracia's located at Av. Hadj Ali Soua, Ksar Hellal 5070. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.650286306643, 10.889871328591. For more details, visit their link at https://www.google.com/maps/place/Gracia%E2%80%99s/data=!4m7!3m6!1s0x1302117ea8e90fad:0xd6e4584c8d9882e6!8m2!3d35.6545647!4d10.8901803!16s%2Fg%2F11t3bt7qq6!19sChIJrQ_pqH4RAhMR5oKYjUxY5NY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 504 544.</t>
+          <t>Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you indulge in highly rated Creperie at a popular destination with GPS coordinates and contact information provided?</t>
+          <t>Day Plan:
+Morning: Explore the historical Maison de Congrès, immersing yourself in the region's rich history and culture.
+Mid-Morning: Indulge in the delicious crepes and waffles at Gracia's, savoring the flavors of local cuisine.
+Midday: Visit Target Pizza for a highly-rated lunch, enjoying the exquisite pizzas and vibrant ambiance.
+Afternoon: Engage in outdoor activities at Ksar hellal, a beautiful garden offering serene landscapes and recreational opportunities.
+Evening: Experience cultural immersion at Soltane Elchem, a family restaurant known for its cozy ambiance and authentic cuisine.
+Night: Relax and rejuvenate with a soothing massage at a local spa or hotel, unwinding after a day of exploration and discovery.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Billionaire cafe is a cafe located in Billionaire cafe, Erriadh, Ksar Hellal.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating based on one review and offers 24 hour service.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1426,13 +1754,59 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated cafe, check out Cafe de l'Excellence located at MV5R+67F Cafe de l'Excellence, Av. Habib Bourguiba, Ksar Hellal. 
-This popular destination offers a range of drinks and a relaxed ambiance to enjoy it all in. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day, so you can visit it whenever you want. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775.</t>
+          <t>Cafe de l'Excellence is a 4.5-rated cafe located in Ksar Hellal, offering around-the-clock service. It features a prime location at Av. Habib Bourguiba, making it easily accessible to both locals and visitors. Cafe de l'Excellence  is positioned at coordinates (35.664361783147, 10.870534903775), offering a convenient destination for coffee lovers and those seeking a pleasant ambiance.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated cafe open 24 hours a day, known for its relaxed atmosphere and popular drinks?</t>
+          <t>Day Plan:
+Morning: Exploring the beautiful Ksar Hellal garden.
+Mid-Morning: Visiting Maison de Congrès museum for historical insights.
+Midday: Trying local cuisine at Chaneb Food shnb fwd for an authentic Tunisian experience.
+Afternoon: Enjoying scenic views at SULTANE EL CHAM and appreciating the local art and ambiance.
+Evening: Indulging in a relaxing spa experience at Perfect Bio.
+Night: Exploring the vibrant night markets for local crafts and souvenirs.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Gara is a cafe located in Ksar Hellal. It has a rating of 4.0 based on 4 reviews.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Restaurant Al Moulouk is a restaurant located in Ksar Hellal (35.664362, 10.870535). It has an average rating of 4.0 out of 5 based on 18 reviews. The restaurant is open from 9:00 AM to 10:00 PM, 7 days a week.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1538,16 +1912,59 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in Ksar Hellal and looking for a tasty bite, check out Chaneb Food shnb fwd located at En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba. 
-This top-rated fast food spot is perfect for Tunisian foodies and offers a range of choices. 
-With a rating of 4.4, it's a must-visit spot. It's open daily from 11:00-23:00. 
-To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. 
-For more details, visit their website or call them at 58 336 336.</t>
+          <t>Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated Tunisian fast food spot, conveniently located and open late?</t>
+          <t>Day Plan:
+Morning: Enjoy scenic views at Ksar hellal, a beautiful garden with a 5.0/5 review rating.
+Mid-Morning: Take a guided tour of Maison de Congrès, a museum showcasing historical artifacts and exhibitions.
+Midday: Try local cuisine at Soltane Elchem, a highly rated family restaurant known for its delicious food and friendly service.
+Afternoon: Engage in outdoor activities like relaxing with a recreational activity at Down Town, a tea room known for its delicious tea and pastries.
+Evening: Experience cultural immersion at Gracia's, a creperie with a 4.4 out of 5 rating, known for its delicious crepes and waffles.
+Night: Enjoy scenic views at Target Pizza, a highly-rated pizzeria with a 4.8-star rating, known for its delicious pizzas.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Elyssa is a cafe located in ksar hellal, Tunisia. It has a 5.0 rating based on 3 reviews. The cafe is open from 05:00 to 00:00 and is located at Av. Habib bourguiba, Ksar Hellal 5070. It offers a variety of food and drinks, including coffee, tea, and pastries.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1649,14 +2066,59 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Kuriat located at MV5R+397 Cafe Kuriat, Av. Habib Bourguiba, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:30-12:00. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Kuriat/data=!4m7!3m6!1s0x130216cad0f4f607:0x309517f9291d2699!8m2!3d35.657658!4d10.8909166!16s%2Fg%2F11b6xd4zfl!19sChIJB_b00MoWAhMRmSYdKfkXlTA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Kuriat is a cafe located in Ksar Hellal, Tunisia. It offers a 4.2-star rating and is open from 6:30am to 12:00pm. It is situated at coordinates (35.664361783147, 10.870534903775).</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you indulge in a top-rated Cafe experience with a high 4.2 rating and a wide selection of Cafe options?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès, a museum showcasing historical artifacts and exhibitions.
+Mid-Morning: Visit Ksar hellal, a beautiful garden with a 5.0/5 rating.
+Midday: Try local cuisine at Soltane Elchem, a family restaurant known for its delicious food and cozy ambiance.
+Afternoon: Enjoy scenic views at Gare De Ksar Hellal, a train station with a 3.9-star rating.
+Evening: Participate in an event or activity at station louage, a bus station offering transportation services to various destinations.
+Night: Relax with a beverage at Down Town, a popular tea room open from 7 am to 1 am.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Kuriat is a cafe located in Ksar Hellal, Tunisia. It offers a 4.2-star rating and is open from 6:30am to 12:00pm. It is situated at coordinates (35.664361783147, 10.870534903775).
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Dar ZMEN, located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775), is a popular restaurant in the area, offering a dining experience. It has received an impressive rating of 4.8 based on 5 reviews. Dar ZMEN operates from 10:00 to 17:00 on weekdays and is currently not closed on any specific days. The restaurant can be contacted by calling 52 216 933.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1758,14 +2220,67 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a cozy Cafe, check out Cafe Delice located at MV3J+7FR Cafe Delice. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website or call them at .</t>
+          <t>Cafe Delice is a highly rated cafe located in Ksar Hellal. The venue offers a rich selection of food and beverages. With a 4.1 star rating out of 18 reviews, the cafe is open from 06:00-23:30 with no day offs. Cafe Delice is situated at the following coordinates: (35.6447353, 10.8880694) and can be contacted directly through their website.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe with cozy ambiance in Ksar Hellal, and what are its operating hours?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical Maison de Congrès museum, showcasing the rich history of Ksar Hellal.
+**Mid-Morning:**
+* Try local cuisine at Restaurant cafe, known for its excellent 5.0 rating and cozy ambiance.
+**Midday:**
+* Visit the beautiful Ksar Hellal garden, offering a peaceful oasis amidst the city.
+**Afternoon:**
+* Engage in outdoor activities like hiking or biking in the scenic Ksar Hellal garden.
+**Evening:**
+* Enjoy a delicious dinner at Gracia's creperie, famous for its delectable crepes and waffles.
+**Night:**
+* Relax at Down Town tea room, savoring flavorful tea and pastries while unwinding from the day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant cafe is a cafe in ksar hellal.
+It is located at (35.6418069, 10.8925471) and has a 5.0 rating.
+Its main category is Cafe.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Jus becha is a restaurant in ksar hellal located at the following address MV2P+3RJ Jus becha, Av. Des Nations Unis, Ksar Hellal. The restaurant is open from 08:30-20:00 and is closed on . Jus becha got a rating of 5.0 and 6 reviews.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1871,14 +2386,60 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great restaurant, check out Volcano located at JVVR+Q95 Volcano, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 13:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, call them at 98 288 755.</t>
+          <t>The Volcano Restaurant is located in Volcano, Ksar Hellal, Tunisia, at the coordinates (35.6447353, 10.8880694). It offers a dining experience with a 4.4-star rating, categorized as a Restaurant. The restaurant serves lunch and dinner from 13:00 to 00:00, except on Sundays when it is closed. Contact can be made via phone at 98 288 755.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>What is the highly rated restaurant in Ksar Hellal, renowned for its exceptional culinary experiences, located at specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the historical Maison de Congrès, showcasing artifacts and exhibitions.
+Mid-Morning: Satisfy your hunger with local flavors at the highly-rated Gracia's creperie, known for its delicious crepes and waffles.
+Midday: Visit the SHELL Petrol Station for fuel and enjoy the convenience of their car wash services.
+Afternoon: Engage in outdoor activities at the Ksar Hellal garden, renowned for its scenic beauty and diverse flora.
+Evening: Experience cultural immersion at the Soltane Elchem family restaurant, offering a cozy ambiance and delectable cuisine.
+Night: Relax and unwind at Down Town tea room, open late into the night and serving delicious tea and pastries.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Ksar Hellal at coordinates (35.6447353, 10.8880694), Cafe Hugo Said is a cozy retreat for coffee enthusiasts and diners alike. As a reputable Cafe, it offers a warm and inviting atmosphere where guests can indulge in a variety of culinary delights.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Jus becha is a restaurant in ksar hellal located at the following address MV2P+3RJ Jus becha, Av. Des Nations Unis, Ksar Hellal. The restaurant is open from 08:30-20:00 and is closed on . Jus becha got a rating of 5.0 and 6 reviews.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1988,14 +2549,59 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Down Town located at Down Town, avenue aglabite, Ksar Hellal 5070. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more details, visit their website at https://www.facebook.com/down-town-caf%25C3%25A9-109068542474837/ or call them at 98 514 151.</t>
+          <t>Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated destination with a focus on Salon de the, open from 7:00 AM to 1:00 AM with GPS coordinates of 35.6467207, 10.8825579?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Ksar Hellal Garden, renowned for its beautiful greenery and diverse flora.
+Mid-Morning: Try local cuisine at Chaneb Food, a highly-rated fast-food restaurant offering traditional Tunisian dishes.
+Midday: Visit the Maison de Congrès Museum, showcasing historical artifacts and exhibitions for a cultural immersion.
+Afternoon: Enjoy some outdoor activities at the beach or park, such as swimming, sunbathing, or engaging in water sports.
+Evening: Experience a cultural immersion at the Laaroussi Cafe, known for its exceptional service and cozy atmosphere.
+Night: Savor delicious grilled dishes at Papa Grill, a popular restaurant offering a delightful dining experience.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Laaroussi is a popular cafe nestled at 5070 Rue Al Maari in Ksar Hellal. It has garnered a 5.0 rating from one review, highlighting its exceptional service. The cafe offers a cozy and inviting atmosphere, making it a perfect spot to unwind and savor your favorite beverages. Its precise location is at (35.6467207, 10.8825579), making it easily accessible for patrons.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+ALADIN PASTRY is a restaurant in Ksar Hellal offering a delightful dining experience. It boasts a rating of 5.0 and enjoys high praise from its patrons. The establishment is located at the coordinates (35.6447353, 10.8880694), making it easily accessible to visitors.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2707,59 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Pizzeria, check out SULTANE EL CHAM located at JVWR+PGW SULTANE EL CHAM, Av. Habib Bourguiba, Ksar Hellal. This 4.4-rated destination offers a range of Pizzeria options to choose from. It's open during these hours: 08:00-23:00, but closed on lundi. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/SULTANE+EL+CHAM/data=!4m7!3m6!1s0x1302177459df3353:0x9d6cb570a7ce5030!8m2!3d35.6467824!4d10.8913317!16s%2Fg%2F11rclk8xjd!19sChIJUzPfWXQXAhMRMFDOp3C1bJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 911 911.</t>
+          <t>SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a top-rated Pizzeria with a highly significant 4.4 rating?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Ksar Hellal Garden.
+Mid-Morning: Visit Maison de Congrès, a historical museum showcasing cultural artifacts and exhibitions.
+Midday: Try local cuisine at Dreams Food, a highly-rated restaurant offering delicious dishes.
+Afternoon: Enjoy a relaxing tea and pastries at Down Town, a popular tea room known for its delightful ambiance.
+Evening: Take a leisurely stroll through the city, admiring the local architecture and street life.
+Night: Relish the cozy atmosphere and delicious food at Soltane Elchem, a family-run restaurant.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Ksar Hellal, cafe.te.ria Boughzala is a cafe open from 6 AM til 10 PM. Being one of the most visited places of the city with 1 review and a rating of 5.0, it offers you a great time and a pleasant moment to enjoy with friends and family.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2208,14 +2861,59 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Hugo Said. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+Hugo+Sa%C3%AFd/data=!4m7!3m6!1s0x130211fa81679f21:0x8ddbe2854efa6b88!8m2!3d35.6531383!4d10.8894671!16s%2Fg%2F11pz51wx06!19sChIJIZ9ngfoRAhMRiGv6ToXi240?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of Ksar Hellal at coordinates (35.6447353, 10.8880694), Cafe Hugo Said is a cozy retreat for coffee enthusiasts and diners alike. As a reputable Cafe, it offers a warm and inviting atmosphere where guests can indulge in a variety of culinary delights.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly rated cafe with a wide selection and extended hours?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Hellal town, a beautiful garden with a walking trail, a playground, and a picnic area.
+Mid-Morning: Visit Maison de Congrès, a museum showcasing various historical artifacts and exhibitions.
+Midday: Try local cuisine at Copa Cabana, a popular restaurant known for its delicious pizzas and tacos.
+Afternoon: Relax and unwind at Down Town, a popular tea room known for its delicious tea and pastries.
+Evening: Engage in outdoor activities like hiking or biking at Ksar Hellal garden.
+Night: Experience cultural immersion at Soltane Elchem, a family restaurant offering a cozy ambiance and delicious food.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In Ksar Hellal, Cafe wifi stands out as a cozy and inviting spot for locals and visitors alike. With its rating of 5.0, the cafe has garnered positive feedback from its patrons. Nestled at the coordinates (35.6447353, 10.8880694), it offers a convenient location for those seeking a place to relax and connect. Although additional information such as contact details and hours of operation are unavailable, Cafe wifi is a promising destination for anyone looking to enjoy a delightful cafe experience.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Copa Cabana is a popular restaurant located in Ksar Hellal, Tunisia. With a rating of 4.1, it has received positive feedback from its customers, with reviews highlighting its delicious pizzas and tacos. The restaurant is open daily from 11:00 AM to 11:00 PM, offering a convenient dining experience. Its central location (35.6447353, 10.8880694) makes it easily accessible for both locals and tourists seeking a satisfying meal.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2321,14 +3019,59 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out BAM COFFEE SHOP located at MV4R+Q82 BAM COFFEE SHOP, Av. Habib Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at   or call them at 52 334 344.</t>
+          <t>The BAM COFFEE SHOP is a cafe located in Ksar Hellal, Tunisia. It is open 24 hours a day and has a rating of 4.5 out of 5 on Google Maps. The cafe offers a variety of food and drink options, and is located at the coordinates (35.664361783147, 10.870534903775).</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café with a wide selection of options in Ksar Hellal, open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Hellal's Jardin Ksar Hellal
+Mid-Morning: Trying local cuisine at Chaneb Food shnb fwd
+Midday: Visiting Maison de Congrès Museum
+Afternoon: Relaxing with a tea at Down Town
+Evening: Enjoying dinner at Soltane Elchem
+Night: Experiencing cultural immersion at the traditional souk</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Prestige located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775). This popular cafe has garnered excellent feedback, boasting a 5-star rating.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Restaurant Ezzarda is located in Ksar Hellal. Restaurant Ezzarda has gotten 27 reviews and is rated 4.4 out of 5 stars. Restaurant Ezzarda is in the category of Restaurant and offers a variety of services and amenities. Restaurant Ezzarda's coordinates are (35.6447353, 10.8880694). Restaurant Ezzarda is a popular spot for locals and tourists alike.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2426,12 +3169,59 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Dardouri located at JVWM+78Q Cafe Dardouri, Ksar Hellal. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Dardouri/data=!4m7!3m6!1s0x1302115477485933:0x73bb79ab0b76c4b2!8m2!3d35.6457178!4d10.8833535!16s%2Fg%2F11kzjrx7_1!19sChIJM1lId1QRAhMRssR2C6t5u3M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Dardouri is a highly-rated cafe (4.7 stars based on 6 reviews) located in Ksar Hellal, Kairouan. The precise location is at JVWM+78Q Cafe Dardouri, Ksar Hellal (35.6447353, 10.8880694). Unfortunately, we don't have further information regarding its offerings, opening hours, or contact details.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a top-rated cafe with a 4.7 rating that's perfect for coffee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Helal Zone Industrielle, a railway station with historical significance and train services.
+Mid-Morning: Enjoy local cuisine at SULTANE EL CHAM pizzeria, known for its delicious food and cozy ambiance.
+Midday: Visit Maison de Congrès, a museum showcasing fascinating historical artifacts and exhibitions.
+Afternoon: Relax with a cup of tea from Down Town, a tea room famous for its delightful tea and pastries.
+Evening: Engage in outdoor activities like walking or cycling in Ksar hellal, a beautiful garden offering breathtaking views.
+Night: Experience a cultural immersion by enjoying a traditional Tunisian meal at Chaneb Food, a fast-food restaurant serving authentic dishes.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In Ksar Hellal, Cafe wifi stands out as a cozy and inviting spot for locals and visitors alike. With its rating of 5.0, the cafe has garnered positive feedback from its patrons. Nestled at the coordinates (35.6447353, 10.8880694), it offers a convenient location for those seeking a place to relax and connect. Although additional information such as contact details and hours of operation are unavailable, Cafe wifi is a promising destination for anyone looking to enjoy a delightful cafe experience.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Fast food coba is a restaurant located in Ksar Hellal, Tunisia, at the coordinates (35.6447353, 10.8880694). It has a rating of 5.0 based on 1 review and is categorized as a restaurant. The phone number for the restaurant is 50 530 430.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2537,12 +3327,65 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great Restaurant, check out Jus becha located at MV2P+3RJ Jus becha, Av. Des Nations Unis, Ksar Hellal. This top-rated spot is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-20:00. To get there, use these GPS coordinates: 35.65103274965, 10.888737730698. For more details, visit their website at https://www.google.com/maps/place/Jus+becha/data=!4m7!3m6!1s0x130211a42b060c1d:0xe0878697058442fd!8m2!3d35.6502217!4d10.8870245!16s%2Fg%2F11fkvnmf7x!19sChIJHQwGK6QRAhMR_UKEBZeGh-A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 500 223.</t>
+          <t>Jus becha is a restaurant in ksar hellal located at the following address MV2P+3RJ Jus becha, Av. Des Nations Unis, Ksar Hellal. The restaurant is open from 08:30-20:00 and is closed on . Jus becha got a rating of 5.0 and 6 reviews.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find the highly-rated restaurant "Jus becha," perfect for restaurant enthusiasts with diverse culinary options?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Maison de Congrès (Museum)
+**Mid-Morning:**
+- Visit the beautiful Ksar Hellal Garden
+**Midday:**
+- Try local cuisine at Chaneb Food shnb fwd (Fast-Food Restaurant)
+**Afternoon:**
+- Engage in outdoor activities like hiking or cycling at Ksar Hellal Zone Industrielle (Railway Station)
+**Evening:**
+- Experience cultural immersion at Cafe de l'Excellence (Cafe)
+**Night:**
+- Enjoy scenic views at SULTANE EL CHAM (Pizzeria)</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de l'Excellence is a highly-rated cafe located at Av. Habib Bourguiba, Ksar Hellal, Tunisia. It has an average rating of 4.5 out of 5 based on 24 reviews. The cafe is open 24 hours a day and offers a variety of services, including food and drinks. It is also a popular spot for locals and tourists alike.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Restaurant Ezzarda is located in Ksar Hellal. Restaurant Ezzarda has gotten 27 reviews and is rated 4.4 out of 5 stars. Restaurant Ezzarda is in the category of Restaurant and offers a variety of services and amenities. Restaurant Ezzarda's coordinates are (35.6447353, 10.8880694). Restaurant Ezzarda is a popular spot for locals and tourists alike.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2648,12 +3491,60 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Restaurant, check out Dar ZMEN located at JVVR+M88 Dar ZMEN, Av. Habib Bourguiba, Ksar Hellal. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 10:00-17:00, but closed on []. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at or call them at 52 216 933.</t>
+          <t>Dar ZMEN, located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775), is a popular restaurant in the area, offering a dining experience. It has received an impressive rating of 4.8 based on 5 reviews. Dar ZMEN operates from 10:00 to 17:00 on weekdays and is currently not closed on any specific days. The restaurant can be contacted by calling 52 216 933.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>If you're visiting Ksar Hellal and craving a highly-rated dining experience, where can you find Dar ZMEN, known for its exceptional 4.8-star rating?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Ksar Hellal garden, enjoying its diverse flora and fauna.
+Mid-Morning: Visit Maison de Congrès for a glimpse into the rich history and culture of Ksar Hellal.
+Midday: Satisfy your taste buds with delicious local cuisine at the highly-rated Chaneb Food shnb fwd.
+Afternoon: Experience the ambiance and flavors of SULTANE EL CHAM, a renowned pizzeria in Ksar Hellal.
+Evening: Relax and rejuvenate with a soothing spa treatment at Perfect Bio.
+Night: Immerse yourself in the vibrant atmosphere of Down Town, a popular tea room with delicious tea and pastries.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Elyssa is a cafe located in ksar hellal, Tunisia. It has a 5.0 rating based on 3 reviews. The cafe is open from 05:00 to 00:00 and is located at Av. Habib bourguiba, Ksar Hellal 5070. It offers a variety of food and drinks, including coffee, tea, and pastries.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+The Volcano Restaurant is located in Volcano, Ksar Hellal, Tunisia, at the coordinates (35.6447353, 10.8880694). It offers a dining experience with a 4.4-star rating, categorized as a Restaurant. The restaurant serves lunch and dinner from 13:00 to 00:00, except on Sundays when it is closed. Contact can be made via phone at 98 288 755.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2755,12 +3646,59 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated cafe, check out Cafe Gara at JVXM+HMJ. This cafe offers a range of categories to choose from, making it perfect for cafe lovers. With a rating of 4.0, it's a must-visit spot that's open 24 hours a day. To get there, you can use the GPS coordinates (35.6489283, 10.8841924).</t>
+          <t>Cafe Gara is a cafe located in Ksar Hellal. It has a rating of 4.0 based on 4 reviews.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Question: Where can you find a highly-rated 24-hour cafe in Ksar Hellal that boasts a diverse menu selection?</t>
+          <t>Day Plan:
+Morning: Exploring Maison de Congrès, a museum showcasing historical artifacts and exhibitions.
+Mid-Morning: Trying local Tunisian cuisine at Chapati La Cabana, a fast-food restaurant offering wraps, sandwiches, and salads.
+Midday: Visiting Ksar hellal, a beautiful garden with a 5.0/5 rating, offering breathtaking views and serene surroundings.
+Afternoon: Enjoying a relaxing spa treatment at Perfect Bio, a health and beauty store, rejuvenating and revitalizing the body.
+Evening: Taking a scenic stroll through Down Town, a tea room offering delicious tea and pastries, savoring the local flavors and charming ambiance.
+Night: Experiencing cultural immersion at SULTANE EL CHAM, a pizzeria with a 4.4/5 rating, offering authentic Tunisian cuisine and a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Ksar Hellal at coordinates (35.6447353, 10.8880694), Cafe Hugo Said is a cozy retreat for coffee enthusiasts and diners alike. As a reputable Cafe, it offers a warm and inviting atmosphere where guests can indulge in a variety of culinary delights.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Jus becha is a restaurant in ksar hellal located at the following address MV2P+3RJ Jus becha, Av. Des Nations Unis, Ksar Hellal. The restaurant is open from 08:30-20:00 and is closed on . Jus becha got a rating of 5.0 and 6 reviews.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2862,12 +3800,59 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Cafe, check out French Brew located at JVWR+PGW French Brew, Av. Habib Bourguiba, Ksar Hellal. This popular destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/French+Brew/data=!4m7!3m6!1s0x130217cde004cccf:0x168668328d42d220!8m2!3d35.6470385!4d10.8910584!16s%2Fg%2F11sf7gl1zp!19sChIJz8wE4M0XAhMRINJCjTJohhY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 073 330.</t>
+          <t>French Brew is a cafe located in Ksar Hellal, Tunisia. The cafe offers a variety of drinks and pastries, and is a popular spot for locals and tourists alike. The cafe is located in the heart of the city, and is easily accessible by public transportation or by car.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>If you're in Ksar Hellal in search of a highly-rated Cafe, what is the name and location of the establishment that offers a variety of Cafe options and boasts a 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès, a museum showcasing historical artifacts and exhibitions.
+Mid-Morning: Visit Ksar hellal, a beautiful garden with a 5.0/5 review rating.
+Midday: Try local cuisine at Gracia's, a highly-rated creperie known for its delicious crepes and waffles.
+Afternoon: Relax and enjoy the cozy atmosphere at mqh~ Hm@ zyzy, a 24-hour cafe offering a variety of drinks and snacks.
+Evening: Explore the cultural immersion at Sultan El Cham, a pizzeria with a 4.4-star rating and a cozy ambiance.
+Night: Take a guided tour of Gare De Ksar Hellal, a train station owned by Gare De Ksar Hellal (proprietaire) with a 3.9-star rating.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the city of Ksar Hellal at the coordinates (35.6467207, 10.8825579), mqh~ Hm@ zyzy is a cafe that offers a cozy atmosphere and a variety of drinks and snacks. Open 24 hours a day, it's a great place to relax and socialize, or to grab a quick bite to eat.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Restaurant Al Moulouk is a restaurant located in Ksar Hellal (35.664362, 10.870535). It has an average rating of 4.0 out of 5 based on 18 reviews. The restaurant is open from 9:00 AM to 10:00 PM, 7 days a week.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2973,13 +3958,59 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Elyssa located at Av. Habib bourguiba, Ksar Hellal 5070. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. For more details, visit their website at  or call them at 55 111 108.</t>
+          <t>Cafe Elyssa is a 5-star rated cafe located in Ksar Hellal, Tunisia, with coordinates (35.658157084052, 10.87577514692). It is open daily from 5 AM to midnight and offers a wide range of cafe-style food and drinks.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated Cafe destination with a range of options, perfect for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès, a local museum showcasing historical artifacts and exhibitions.
+Mid-Morning: Indulge in delicious pastries and coffee at Down Town, a popular tea room.
+Midday: Try local cuisine at Gracia's, a highly rated creperie known for its delicious crepes and waffles.
+Afternoon: Visit Ksar hellal, a beautiful garden offering scenic views.
+Evening: Experience cultural immersion at ALADIN PASTRY, a 5-star rated restaurant renowned for its delectable pastries and friendly service.
+Night: Engage in outdoor activities like jogging or cycling at SULTANE EL CHAM, a pizzeria also known for its excellent customer service.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafetiria Aymen is a cafe located at (35.6447353, 10.8880694) in ksar hellal. It has a rating of 5.0 based on 2 reviews.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+ALADIN PASTRY is a 5-star rated restaurant in ksar hellal, Tunisia. It is known for its delicious pastries and its friendly service. The restaurant is located at MV27+WVR ALADIN PASTRY, Unnamed Road, Ksar Hellal. It is open from 7:30am to 11:00pm, 7 days a week.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3081,12 +4112,59 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Cafe, check out Cafe le colisee located at Av. Habib bourguiba, Ksar Hellal. This destination is perfect for Cafe lovers and it's a must-visit spot with a rating of 5.0. It's open during these hours: 03:00-00:00. To get there, use these GPS coordinates: 35.6462461, 10.886155. For more details, visit their website at https://www.google.com/maps/place/Cafe+le+colisee/data=!4m7!3m6!1s0x130211898a15c3f9:0xa2fb546a2ec25dac!8m2!3d35.6463726!4d10.8864393!16s%2Fg%2F11q2yyktq9!19sChIJ-cMViokRAhMRrF3CLmpU-6I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe le colisee is a cafe located in Ksar Hellal, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and other snacks. The cafe is open from 3:00am to midnight, seven days a week. It is located at 35.6462461 latitude and 10.886155 longitude.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>If you're seeking a highly acclaimed Cafe in ksar hellal that has earned a perfect 5.0 rating, where can you find Cafe le colisee?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès, a museum showcasing local history and culture.
+Mid-Morning: Visit Ksar hellal, a beautiful garden with stunning views.
+Midday: Try local cuisine at Chaneb Food shnb fwd, a fast-food restaurant serving Tunisian dishes.
+Afternoon: Relax with a cup of tea and pastries at Down Town, a popular tea room.
+Evening: Experience cultural immersion at Soltane Elchem, a family-run restaurant with a cozy ambiance and delicious food.
+Night: Enjoy scenic views at SULTANE EL CHAM, a pizzeria with a relaxing atmosphere and a late-night closing time.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Prestige is a cafe located in Ksar Hellal, Tunisia. It is a 5-star-rated cafe that serves its customers from 4:30 AM to midnight. It offers various services and products, making it an ideal place to relax and enjoy.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3188,12 +4266,59 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cafe, check out Cafetiria Aymen. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9tiria+Aymen/data=!4m7!3m6!1s0x130211926c80dca9:0x44e1e596d85fb3e0!8m2!3d35.6474182!4d10.8812811!16s%2Fg%2F11rb5_35lh!19sChIJqdyAbJIRAhMR4LNf2Jbl4UQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 901 915.</t>
+          <t>Cafetiria Aymen is a cafe located at (35.6447353, 10.8880694) in ksar hellal. It has a rating of 5.0 based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe in Ksar Hellal known for its exceptional offerings and rave reviews?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar hellal is beautiful garden
+Mid-Morning: Trying local cuisine at Cafe Hugo Said
+Midday: Visiting Maison de Congrès
+Afternoon: Enjoying Tea and pastries at Down Town
+Evening: Having dinner at Soltane Elchem
+Night: Relaxing with a massage at Perfect Bio</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hugo Said is a 4.3-rated cafe and restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and offers a wide range of food and drinks, including coffee, tea, pastries, sandwiches, and salads. The cafe also has free WiFi and a friendly staff.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+"Restaurant flefel flyfl" is located in Ksar Hellal, Tunisia at (35.6447353, 10.8880694) and is open from 10:00 to 22:30. It is a restaurant with a rating of 4.5 stars out of 6 reviews.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3291,12 +4416,59 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Cafe, check out Laaroussi located at 5070 Rue Al Maari. This must-visit spot offers a range of Cafe options and has a perfect 5.0 rating. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more information, call them at 31 527 272.</t>
+          <t>Laaroussi is a popular cafe nestled at 5070 Rue Al Maari in Ksar Hellal. It has garnered a 5.0 rating from one review, highlighting its exceptional service. The cafe offers a cozy and inviting atmosphere, making it a perfect spot to unwind and savor your favorite beverages. Its precise location is at (35.6467207, 10.8825579), making it easily accessible for patrons.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated café with a perfect 5.0 rating that offers a variety of café options?</t>
+          <t>Day Plan:
+Morning: Explore the scenic beauty of Ksar Hellal at Ksar Hellal.
+Mid-Morning: Visit Maison de Congrès, a renowned museum showcasing captivating historical artifacts and exhibitions.
+Midday: Indulge in a delectable dining experience at Dar ZMEN, a highly rated restaurant offering an authentic taste of local cuisine.
+Afternoon: Unwind and rejuvenate with a relaxing spa treatment at Perfect Bio, a health and beauty store dedicated to well-being.
+Evening: Take a leisurely stroll through Down Town, a popular tea room renowned for its delectable pastries and flavorful tea.
+Night: Immerse yourself in the vibrant atmosphere of Gracia's, a highly esteemed creperie where you can savor mouthwatering crepes and waffles while connecting with locals and fellow travelers.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Gara is a cafe located in Ksar Hellal. It has a rating of 4.0 based on 4 reviews.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Dar ZMEN, located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775), is a popular restaurant in the area, offering a dining experience. It has received an impressive rating of 4.8 based on 5 reviews. Dar ZMEN operates from 10:00 to 17:00 on weekdays and is currently not closed on any specific days. The restaurant can be contacted by calling 52 216 933.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3394,14 +4566,59 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a good cafe, check out Billionaire cafe located at MV4C+CG6 Billionaire cafe, Erriadh, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>Billionaire cafe is a cafe located in ksar hellal, Tunisia. It has a rating of 4.0 and is located at the coordinates (35.6447353, 10.8880694).</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in Ksar Hellal that is known for its selection of Cafe?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès to learn about Ksar Hellal's history and culture.
+Mid-Morning: Try local cuisine at Café Le Colisée, known for its cozy atmosphere and delicious menu.
+Midday: Visit Ksar Hellal, a beautiful garden with a wide variety of plants and flowers.
+Afternoon: Engage in outdoor activities like hiking or biking at the garden.
+Evening: Enjoy scenic views at a sunset spot overlooking the city.
+Night: Experience cultural immersion at Soltane Elchem, a family restaurant offering traditional cuisine and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Le Colisée is a highly-rated café located in Ksar Hellal, Tunisia. Open from 3 AM to midnight every day, it offers a cozy ambiance and a welcoming atmosphere.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and serves a variety of dishes. The restaurant has a rating of 5.0 out of 5 stars on Google Maps. It is located at the coordinates 35.6467207, 10.8825579.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3507,12 +4724,59 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cafe, check out Cafe Prestige located at MV5G+H2V Cafe Prestige, Av. Habib bourguiba, Ksar Hellal. This top-rated destination is perfect for coffee and tea lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-00:00. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, call them at 93 795 056.</t>
+          <t>Discover Cafe Prestige located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775). This popular cafe has garnered excellent feedback, boasting a 5-star rating.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Which cafe in Ksar Hellal is highly rated for its coffee and tea, and is conveniently located on Habib Bourguiba Avenue?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès, a museum showcasing historical artifacts and exhibitions in Ksar Hellal.
+Mid-Morning: Try local cuisine at Chaneb Food, a fast-food restaurant specializing in traditional Tunisian dishes.
+Midday: Visit the Ksar Hellal garden, a public space offering walking trails, a playground, and picnic areas.
+Afternoon: Participate in a guided tour of Gare De Ksar Hellal, a historical train station.
+Evening: Enjoy scenic views at Papa Grill, a restaurant offering grilled dishes with a cozy ambiance.
+Night: Relax with a tea and pastries at Down Town, a popular tea room open from 7 am to 1 am.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In Ksar Hellal, Cafe wifi stands out as a cozy and inviting spot for locals and visitors alike. With its rating of 5.0, the cafe has garnered positive feedback from its patrons. Nestled at the coordinates (35.6447353, 10.8880694), it offers a convenient location for those seeking a place to relax and connect. Although additional information such as contact details and hours of operation are unavailable, Cafe wifi is a promising destination for anyone looking to enjoy a delightful cafe experience.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Copa Cabana is a popular restaurant located in Ksar Hellal, Tunisia. With a rating of 4.1, it has received positive feedback from its customers, with reviews highlighting its delicious pizzas and tacos. The restaurant is open daily from 11:00 AM to 11:00 PM, offering a convenient dining experience. Its central location (35.6447353, 10.8880694) makes it easily accessible for both locals and tourists seeking a satisfying meal.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3618,14 +4882,66 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a yummy Restaurant, check out ALADIN PASTRY located at MV27+WVR ALADIN PASTRY, Unnamed Road, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-23:00, but closed on []. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at  or call them at 53 590 809.</t>
+          <t>ALADIN PASTRY is a restaurant in Ksar Hellal offering a delightful dining experience. It boasts a rating of 5.0 and enjoys high praise from its patrons. The establishment is located at the coordinates (35.6447353, 10.8880694), making it easily accessible to visitors.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated Restaurant with a wide selection of options?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical artifacts and exhibitions at **Maison de Congrès**.
+**Mid-Morning:**
+* Try the delicious crepes and waffles at the highly rated **Gracia's**.
+**Midday:**
+* Visit the scenic **Ksar hellal** garden and enjoy the beautiful surroundings.
+**Afternoon:**
+* Enjoy the cozy ambiance and delicious food at the family-run restaurant **Soltane Elchem**.
+**Evening:**
+* Engage in outdoor activities such as biking or hiking at the **Parc de Ksar Hellal**.
+**Night:**
+* Relax with a traditional Hammam experience at a local spa to rejuvenate and prepare for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Ksar Hellal at the coordinates (35.6447353, 10.8880694), Cafe.te.ria Boughzala is a cafe with a 5.0 rating. It offers a wide range of services and products, including sitting areas, a cozy atmosphere, and delicious coffee and snacks.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3723,14 +5039,61 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Cafe, check out Restaurant cafe located at MV3Q+7Q4 Restaurant cafe, Ksar Hellal. 
-This destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6418069, 10.8925471.</t>
+          <t>Restaurant cafe is a cafe in ksar hellal.
+It is located at (35.6418069, 10.8925471) and has a 5.0 rating.
+Its main category is Cafe.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe with a 5.0 rating and a wide selection of options near Ksar Hellal?</t>
+          <t>Day Plan:
+Morning: Explore the historical exhibits and artifacts at Maison de Congrès, a prominent museum in Ksar Hellal.
+Mid-Morning: Indulge in traditional Tunisian cuisine at Chaneb Food shnb fwd, known for its authentic flavors.
+Midday: Immerse yourself in the bustling atmosphere of Ksar hellal, a beautiful garden with picturesque views.
+Afternoon: Visit SULTANE EL CHAM, a highly-rated pizzeria renowned for its delicious pizzas and excellent service.
+Evening: Discover the local tea culture at Down Town, a cozy tea room offering a selection of flavorful teas and pastries.
+Night: Enjoy a relaxing walk through the scenic Laaroussi cafe, relishing the cozy ambiance and sipping on your favorite beverages.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Laaroussi is a popular cafe nestled at 5070 Rue Al Maari in Ksar Hellal. It has garnered a 5.0 rating from one review, highlighting its exceptional service. The cafe offers a cozy and inviting atmosphere, making it a perfect spot to unwind and savor your favorite beverages. Its precise location is at (35.6467207, 10.8825579), making it easily accessible for patrons.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Copa Cabana is a popular restaurant located in Ksar Hellal, Tunisia. With a rating of 4.1, it has received positive feedback from its customers, with reviews highlighting its delicious pizzas and tacos. The restaurant is open daily from 11:00 AM to 11:00 PM, offering a convenient dining experience. Its central location (35.6447353, 10.8880694) makes it easily accessible for both locals and tourists seeking a satisfying meal.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3836,12 +5199,59 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>In ksar hellal, cafe.te.ria Boughzala is a top-rated destination for Cafe lovers. Located at MV3C+2JW cafe.te.ria Boughzala, Ksar Hellal, this place offers a range of Cafe. With a 5.0 rating, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website https://www.google.com/maps/place/caf%C3%A9.te.ria+Boughzala/data=!4m7!3m6!1s0x130211c3033024c5:0xff901db07e5c608e!8m2!3d35.6526165!4d10.8715832!16s%2Fg%2F11h144br6x!19sChIJxSQwA8MRAhMRjmBcfrAdkP8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 394 201.</t>
+          <t>Located in Ksar Hellal, cafe.te.ria Boughzala is a cafe open from 6 AM til 10 PM. Being one of the most visited places of the city with 1 review and a rating of 5.0, it offers you a great time and a pleasant moment to enjoy with friends and family.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in Ksar Hellal, Tunisia, with a 5.0 rating and extended hours of operation?</t>
+          <t>Day Plan:
+Morning: Exploring historical artifacts and exhibitions at Maison de Congrès.
+Mid-Morning: Trying local cuisine at Dreams Food, a highly-rated restaurant with 5-star ratings.
+Midday: Visiting the picturesque garden of Ksar Hellal, perfect for a leisurely stroll and enjoying the scenic views.
+Afternoon: Relaxing and indulging in a pampering session at Perfect Bio, a health and beauty store offering a range of rejuvenating treatments.
+Evening: Shopping for souvenirs and local products at the lively market in Ksar Hellal.
+Night: Experiencing the vibrant atmosphere and local culture at SULTANE EL CHAM, a popular pizzeria known for its delicious food and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Ksar Hellal at coordinates (35.6447353, 10.8880694), Cafe Hugo Said is a cozy retreat for coffee enthusiasts and diners alike. As a reputable Cafe, it offers a warm and inviting atmosphere where guests can indulge in a variety of culinary delights.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3939,12 +5349,59 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great place to relax, check out mqh~ Hm@ zyzy located at 5070, mqh~ Hm@ zyzy. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day.</t>
+          <t>Located in the city of Ksar Hellal at the coordinates (35.6467207, 10.8825579), mqh~ Hm@ zyzy is a cafe that offers a cozy atmosphere and a variety of drinks and snacks. Open 24 hours a day, it's a great place to relax and socialize, or to grab a quick bite to eat.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly rated (5.0) destination that offers a diverse selection of Cafe options in a relaxing atmosphere, open round the clock?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historic Maison de Congrès, a museum showcasing local history and culture.
+**Mid-Morning:** Visit the Ksar hellal garden, a serene oasis with picturesque views.
+**Midday:** Indulge in local cuisine at The Deal Sweet &amp; Salty, known for its delectable sweet and savory dishes.
+**Afternoon:** Embark on a guided tour of the SULTANE EL CHAM pizzeria, a cozy spot serving authentic pizzas.
+**Evening:** Enjoy the vibrant ambiance of Down Town, a popular tea room offering delicious tea and pastries.
+**Night:** Relax and unwind at Gracie's, a highly rated creperie serving delectable crepes and waffles.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Prestige is a cafe located in Ksar Hellal, Tunisia. It is a 5-star-rated cafe that serves its customers from 4:30 AM to midnight. It offers various services and products, making it an ideal place to relax and enjoy.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4042,18 +5499,65 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cup of coffee, be sure to check out L'instant Cafe, conveniently located at MV2P+6V7 L'instant Cafe. This top-rated cafe is a must-visit for coffee enthusiasts and boasts a perfect rating of 5.0. Visit their website below or just drop by for a cup of joe!
-Main categories: Cafe
-Categories: Cafe
-Rating: 5.0
-Address: MV2P+6V7 L'instant Cafe, Ksar Hellal
-Coordinates: (35.6447353, 10.8880694)
-Website: Not mentioned</t>
+          <t>L'instant Cafe is a cafe located in Ksar Hellal, Tunisia, offering a cozy ambiance and a variety of beverages. It is rated 5.0 by its customers, who have praised its relaxing atmosphere and friendly staff.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (5.0) cafe conveniently located in Ksar Hellal, known for its exceptional coffee experience?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the historic Maison de Congrès museum, showcasing Ksar Hellal's rich past and culture.
+**Mid-Morning:**
+- Visit the colorful Down Town tea room for a refreshing cup of tea and pastries to energize you for the day ahead.
+**Midday:**
+- Try local cuisine at Willy's Food, renowned for its delicious dishes and 5-star rating.
+**Afternoon:**
+- Relax with a rejuvenating spa treatment at Perfect Bio, helping you unwind and restore your well-being.
+**Evening:**
+- Immerse in the local ambiance at Soltane Elchem, a family restaurant known for its cozy ambiance and delectable food.
+**Night:**
+- Head to Gracia's creperie for dessert and indulge in its highly-rated crepes and waffles.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Billionaire cafe is a cafe located in ksar hellal, Tunisia. It has a rating of 4.0 and is located at the coordinates (35.6447353, 10.8880694).
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and serves a variety of dishes. The restaurant has a rating of 5.0 out of 5 stars on Google Maps. It is located at the coordinates 35.6467207, 10.8825579.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4151,17 +5655,61 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe wifi located at JVVF+RG6 Cafe wifi, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: (35.6447353, 10.8880694). 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+wifi/data=!4m7!3m6!1s0x130211ff68118ab7:0xd53574b9a504ce8f!8m2!3d35.6445297!4d10.8737504!16s%2Fg%2F11hflfp5ys!19sChIJt4oRaP8RAhMRj84Epbl0NdU?authuser=0&amp;hl=fr&amp;rclk=1
- or call them at  .</t>
+          <t>In Ksar Hellal, Cafe wifi stands out as a cozy and inviting spot for locals and visitors alike. With its rating of 5.0, the cafe has garnered positive feedback from its patrons. Nestled at the coordinates (35.6447353, 10.8880694), it offers a convenient location for those seeking a place to relax and connect. Although additional information such as contact details and hours of operation are unavailable, Cafe wifi is a promising destination for anyone looking to enjoy a delightful cafe experience.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe (Cafe wifi) with GPS coordinates (35.6447353, 10.8880694) that offers a wide selection of cafe options in Ksar Hellal?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Ksar Hellal garden, with its walking trail, playground, and picnic area.
+Mid-Morning: Visit the Maison de Congrès museum to learn about the history and culture of Ksar Hellal.
+Midday: Try local cuisine at ALADIN PASTRY, known for its delicious pastries and friendly service.
+Afternoon: Enjoy a guided tour of the Ksar Helal Zone Industrielle railway station to learn about its operations and significance.
+Evening: Relax with a traditional hammam experience at a local spa or hotel.
+Night: Attend a cultural performance at the Down Town tea room, known for its delicious tea and pastries.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant cafe is a cafe in ksar hellal.
+It is located at (35.6418069, 10.8925471) and has a 5.0 rating.
+Its main category is Cafe.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+ALADIN PASTRY is a 5-star rated restaurant in ksar hellal, Tunisia. It is known for its delicious pastries and its friendly service. The restaurant is located at MV27+WVR ALADIN PASTRY, Unnamed Road, Ksar Hellal. It is open from 7:30am to 11:00pm, 7 days a week.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4263,12 +5811,65 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and searching for a great place to satisfy your appetite, Willy's Food located at JVRQ+R6W Rue al-rebat, Ksar Hellal 5070, is the perfect spot. This top-rated restaurant, with a 5.0 rating, serves mouthwatering dishes. Open 24 hours a day, it's always a convenient time to visit. For more details, you can contact them at 53 673 995.</t>
+          <t>Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and serves a variety of dishes. The restaurant has a rating of 5.0 out of 5 stars on Google Maps. It is located at the coordinates 35.6467207, 10.8825579.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a 5.0-rated restaurant in Ksar Hellal that's conveniently open 24 hours a day?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the serene "Ksar Hellal" garden, offering tranquil walking trails, a playground, and picnic areas.
+**Mid-Morning:**
+- Visit the Maison de Congrès, a fascinating museum showcasing historical artifacts and exhibitions.
+**Midday:**
+- Savor a delightful meal at the top-rated "Gracia's," renowned for its delectable crepes and waffles.
+**Afternoon:**
+- Venture to the "patisserie confiserie marocaine" for delectable pastries and sweet treats.
+**Evening:**
+- Immerse in the captivating ambiance of "Soltane Elchem," a family-friendly restaurant offering a cozy atmosphere and delectable cuisine.
+**Night:**
+- Relax and unwind with a refreshing drink at the highly-rated "Down Town" tea room, known for its exceptional tea and pastries.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Ksar Hellal at coordinates (35.6447353, 10.8880694), Cafe Hugo Said is a cozy retreat for coffee enthusiasts and diners alike. As a reputable Cafe, it offers a warm and inviting atmosphere where guests can indulge in a variety of culinary delights.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Located at (35.6447353, 10.8880694) in Ksar Hellal, "patisserie confiserie marocaine" is a highly rated (4.3/5) establishment that caters to diners from 07:00-19:00 all week long. Unfortunately, it does not have a website or social media presence, but you can contact them via phone at "98 208 908".
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4362,15 +5963,59 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated cafe, look no further than Cafe Mosaique located at MV2W+73 Cafe Mosaique. 
-This cafe is perfect for those looking to enjoy their favorite beverages. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>Cafe Mosaique, located in Ksar Hellal (35.6447353, 10.8880694), is a highly-rated cafe with a 5.0 rating based on one review. It's conveniently situated at MV2W+73, making it easily accessible to locals and visitors alike. Despite limited information available, Cafe Mosaique has established itself as a popular spot for coffee lovers.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated (5.0) cafe suitable for enjoying your favorite beverages, as indicated by its GPS coordinates (35.6447353, 10.8880694)?</t>
+          <t>Day Plan:
+Morning: Explore the historic Maison de Congrès museum, showcasing the rich history and culture of Ksar Hellal.
+Mid-Morning: Indulge in the delicious crepes and waffles at Gracia's, a highly-rated creperie known for its authentic French flavors.
+Midday: Savor the traditional Tunisian cuisine at "Restaurant flefel flyfl," where you can enjoy a delightful lunch amidst a cozy ambiance.
+Afternoon: Visit the scenic Ksar Hellal garden, offering a tranquil oasis with lush greenery, walking trails, and picnic areas.
+Evening: Head to SULTANE EL CHAM pizzeria for an authentic Italian dining experience, where you can enjoy wood-fired pizzas and a warm atmosphere.
+Night: Experience the lively ambiance of Down Town tea room, known for its exquisite tea selection and pastries, offering a perfect end to your day in Ksar Hellal.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Le Colisée is a highly-rated café located in Ksar Hellal, Tunisia. Open from 3 AM to midnight every day, it offers a cozy ambiance and a welcoming atmosphere.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+"Restaurant flefel flyfl" is located in Ksar Hellal, Tunisia at (35.6447353, 10.8880694) and is open from 10:00 to 22:30. It is a restaurant with a rating of 4.5 stars out of 6 reviews.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4464,12 +6109,59 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Nestled in the heart of Ksar Hellal, cafe dardouri is a top-rated destination for Cafe enthusiasts. With a superb 5.0 rating, this establishment offers a cozy ambiance for indulging in your favorite coffee creations. Located conveniently at JVPC+JVR cafe dardouri, Ksar Hellal 5070, cafe dardouri is a must-visit spot for those seeking a delightful cafe experience.</t>
+          <t>Café Dardouri, located in the heart of Ksar Hellal at JVPC+JVR, stands out with its exceptional rating of 5.0 stars based on one review. While there's currently no detailed description or website to provide further insights, its precise coordinates (35.6467207, 10.8825579) allow for easy navigation. The café's primary category is Cafe, offering a cozy ambiance and delectable concoctions to its patrons.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where is the top-rated cafe in Ksar Hellal that offers a cozy ambiance and has a high rating of 5.0?</t>
+          <t>Day Plan:
+**Morning:** Exploring the historical Maison de Congrès, showcasing rich history and culture exhibits.
+**Mid-Morning:** Indulge in the aromatic delights of Down Town tea room, savoring their renowned tea and pastries.
+**Midday:** Satisfy your taste buds with authentic Tunisian cuisine at Chaneb Food shnb fwd, offering a 4.4-star dining experience.
+**Afternoon:** Immerse yourself in the beauty of Ksar hellal garden, capturing breathtaking views and enjoying its serene atmosphere.
+**Evening:** Savor the flavors of Perfect Bio, discovering an array of health and beauty products to enhance well-being.
+**Night:** Experience the vibrant ambiance of Gracia's creperie, renowned for its delectable crepes and waffles, while connecting with locals.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe le colisee is a cafe located in Ksar Hellal, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and other snacks. The cafe is open from 3:00am to midnight, seven days a week. It is located at 35.6462461 latitude and 10.886155 longitude.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Dar ZMEN is a restaurant located in Ksar Hellal, Tunisia at (35.664361783147, 10.870534903775). It has a rating of 4.8 based on 5 reviews and offers a variety of dining options.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4575,12 +6267,59 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Maison De Congres located at JVWR+C5Q Maison De Congres, Ksar Hellal. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, call them at 55 257 602.</t>
+          <t>Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>What is the top-rated museum destination in Ksar Hellal, offering a range of museums and boasting a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès
+Mid-Morning: Try local cuisine at Chapati La Cabana
+Midday: Visit the beautiful Ksar Hellal garden
+Afternoon: Shop for souvenirs at Perfect Bio
+Evening: Enjoy dinner at the highly-rated Gracia's creperie
+Night: Relax and unwind at Down Town tea room with delicious tea and pastries</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+French Brew is a cafe located in Ksar Hellal, Tunisia. The cafe offers a variety of drinks and pastries, and is a popular spot for locals and tourists alike. The cafe is located in the heart of the city, and is easily accessible by public transportation or by car.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Dar ZMEN is a restaurant located in Ksar Hellal, Tunisia at (35.664361783147, 10.870534903775). It has a rating of 4.8 based on 5 reviews and offers a variety of dining options.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4678,14 +6417,59 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Ksar Hellal located at JVVR+69P Ksar Hellal, Av. Habib bourguiba, Ksar Hellal. 
-This top-rated destination is perfect for Jardin lovers and offers a range of Jardin to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/Ksar+Hellal/data=!4m7!3m6!1s0x130216d33753686f:0x43046f8139180449!8m2!3d35.6430884!4d10.8909686!16s%2Fg%2F11dzdkc41p!19sChIJb2hTN9MWAhMRSQQYOYFvBEM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Jardin experience with GPS coordinates of 35.664361783147, 10.870534903775 in Ksar Hellal?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque garden of Ksar Hellal
+Mid-Morning: Experience local cuisine at Soltane Elchem, known for its exceptional food and ambiance
+Midday: Visit Dreams Food, a highly-rated restaurant offering delicious specialties with stunning views
+Afternoon: Take a refreshing swim or indulge in water sports at Ksar Hellal beach
+Evening: Partake in a guided tour of Maison de Congrès to delve into the region's history and culture
+Night: Head to Down Town, a vibrant tea room, to savor their exquisite tea and unwind before the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Elyssa is a cafe located in ksar hellal, Tunisia. It has a 5.0 rating based on 3 reviews. The cafe is open from 05:00 to 00:00 and is located at Av. Habib bourguiba, Ksar Hellal 5070. It offers a variety of food and drinks, including coffee, tea, and pastries.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4791,12 +6575,60 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Perfect Bio located at Perfect Bio, immeuble yassine, Av. Hadj Ali Soua, Ksar Hellal 5070. This top-rated destination is perfect for Boutique de sante et beaute lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more details, visit their website at http://perfectbio.tn/ or call them at 54 058 067.</t>
+          <t>Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a top-rated and must-visit Boutique de sante et beaute destination with a rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the historical Maison de Congrès museum for an immersive cultural experience.
+Mid-Morning: Immerse yourself in the local cuisine by trying the delicious pizza at the highly-rated Target Pizza.
+Midday: Visit the picturesque Ksar Hellal garden to enjoy the serene atmosphere and engage in outdoor activities like walking or picnicking.
+Afternoon: Head to Gracia's for a delightful lunch featuring their renowned crepes and waffles. Explore the surrounding area and discover local shops and markets for unique souvenirs.
+Evening: Savor authentic Tunisian cuisine at the cozy Soltane Elchem family restaurant, known for its delicious food and friendly service.
+Night: Relax and unwind at Down Town tea room, known for its delicious tea and pastries. Indulge in local flavors and engage in friendly conversations.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Billionaire cafe is a cafe located in ksar hellal, Tunisia. It has a rating of 4.0 and is located at the coordinates (35.6447353, 10.8880694).
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+OMEK TANGO is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating on Google based on 2 reviews and is closed on Mondays. The restaurant is open from 10:00-18:00. Unfortunately, no detailed description or information about the menu or other offerings is available at this time.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4890,12 +6722,67 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Ksar hellal located at MW28+2F Ksar hellal, Sayada. 
-This top-rated destination is perfect for Jardin lovers. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Ksar+hellal/data=!4m7!3m6!1s0x130217898aaacd49:0x4793afcd3ee02c46!8m2!3d35.6500123!4d10.9162088!16s%2Fg%2F11tsp40pvl!19sChIJSc2qiokXAhMRRizgPs2vk0c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr"/>
+          <t>Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Maison de Congrès Museum, showcasing local history and culture.
+**Mid-Morning:**
+- Try local Tunisian cuisine at Chaneb Food shnb fwd, known for its authentic flavors.
+**Midday:**
+- Visit Ksar Hellal Garden, a serene oasis with beautiful scenery and diverse flora.
+**Afternoon:**
+- Relax with a rejuvenating spa treatment at Perfect Bio, focusing on health and well-being.
+**Evening:**
+- Dine at Soltane Elchem, a family restaurant offering delicious food in a cozy ambiance.
+**Night:**
+- Experience the vibrant atmosphere at Copa Cabana, renowned for its tasty pizzas and tacos.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BAM COFFEE SHOP is a cozy cafe located in ksar hellal (coordinates: 35.664361783147, 10.870534903775) that offers a variety of coffee drinks and snacks. The cafe is open 24 hours a day, making it a convenient spot for a caffeine fix or a quick bite to eat. With a 4.5-star rating and 6 reviews on Google Maps, BAM COFFEE SHOP is a popular destination for locals and visitors alike.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Copa Cabana is a popular restaurant located in Ksar Hellal, Tunisia. With a rating of 4.1, it has received positive feedback from its customers, with reviews highlighting its delicious pizzas and tacos. The restaurant is open daily from 11:00 AM to 11:00 PM, offering a convenient dining experience. Its central location (35.6447353, 10.8880694) makes it easily accessible for both locals and tourists seeking a satisfying meal.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4991,14 +6878,59 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Ksar Hellal located at Av. Habib bourguiba, Ksar Hellal. This top-rated destination is perfect for Jardin lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. 
-To get there, use these coordinates: 35.664361783147, 10.870534903775. 
-For more details, visit their link at https://www.google.com/maps/place/Ksar+Hellal/data=!4m7!3m6!1s0x130216d33753686f:0x43046f8139180449!8m2!3d35.6430884!4d10.8909686!16s%2Fg%2F11dzdkc41p!19sChIJb2hTN9MWAhMRSQQYOYFvBEM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you indulge in a top-rated Jardins experience?</t>
+          <t>Day Plan:
+Morning: Explore the historical artifacts and exhibitions at Maison de Congrès.
+Mid-Morning: Try local cuisine at Dreams Food, a highly-rated restaurant known for its delicious food.
+Midday: Visit SULTANE EL CHAM, a popular pizzeria renowned for its tasty pizzas and excellent customer service.
+Afternoon: Engage in outdoor activities like enjoying the scenery and admiring the variety of plants and flowers at Ksar Hellal garden.
+Evening: Participate in the cultural immersion by taking a guided tour of the Ksar Helal Zone Industrielle railway station, learning about its train services and historical significance.
+Night: Relax with a calming activity at OLA Petrol Station, offering fuel and other automotive services 24 hours a day, ensuring a smooth and convenient end to your day.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hugo Said is a highly-rated cafe located in Ksar Hellal, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is known for its friendly staff and relaxed atmosphere, and is a popular spot for locals and tourists alike.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5104,12 +7036,59 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Copa Cabana located at JVVR+HCC Copa Cabana, Ksar Hellal. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Copa+Cabana/data=!4m7!3m6!1s0x130216d359efff59:0xf4d2017d90a4f87b!8m2!3d35.6439406!4d10.8910213!16s%2Fg%2F11fz9xx444z!19sChIJWf_vWdMWAhMRe_ikkH0B0vQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 530 430.</t>
+          <t>Copa Cabana is a popular restaurant located in Ksar Hellal, Tunisia. With a rating of 4.1, it has received positive feedback from its customers, with reviews highlighting its delicious pizzas and tacos. The restaurant is open daily from 11:00 AM to 11:00 PM, offering a convenient dining experience. Its central location (35.6447353, 10.8880694) makes it easily accessible for both locals and tourists seeking a satisfying meal.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant destination with a 4.1 rating in Ksar Hellal, known for its wide selection of dining options?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful garden at Ksar Hellal, offering walking trails, a playground, and picnic areas.
+Mid-Morning: Visit the Maison de Congrès Museum for a glimpse into the history and culture of Ksar Hellal.
+Midday: Savor the delicious crepes and waffles at Gracia's, a highly rated creperie.
+Afternoon: Try the grilled dishes at Papa Grill, a popular restaurant with a cozy ambiance and friendly service.
+Evening: Enjoy dinner at Soltane Elchem, a family restaurant known for its delicious food and warm hospitality.
+Night: Relax and unwind with tea and pastries at Down Town, a tea room open late into the evening.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de l'Excellence is a cafe located in Ksar Hellal, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (35.664361783147, 10.870534903775) and has a 4.5 rating on Google.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Located at (35.6447353, 10.8880694) in Ksar Hellal, "patisserie confiserie marocaine" is a highly rated (4.3/5) establishment that caters to diners from 07:00-19:00 all week long. Unfortunately, it does not have a website or social media presence, but you can contact them via phone at "98 208 908".
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5215,14 +7194,59 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Restaurant Ezzarda located at MV3Q+8QH, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website or call them at 97 890 766.</t>
+          <t>Restaurant Ezzarda is located in Ksar Hellal. Restaurant Ezzarda has gotten 27 reviews and is rated 4.4 out of 5 stars. Restaurant Ezzarda is in the category of Restaurant and offers a variety of services and amenities. Restaurant Ezzarda's coordinates are (35.6447353, 10.8880694). Restaurant Ezzarda is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>If you're looking for a top-rated restaurant destination in Ksar Hellal with a wide range of categories to choose from, where should you go?</t>
+          <t>Day Plan:
+Morning: Explore the historical Maison de Congrès, showcasing the rich heritage of Ksar Hellal.
+Mid-Morning: Try local cuisine at Chaneb Food shnb fwd, offering authentic Tunisian flavors.
+Midday: Take a scenic walk through the beautiful Ksar Hellal garden, enjoying the botanical beauty and tranquil atmosphere.
+Afternoon: Visit the highly-rated Dar ZMEN for a delightful dining experience, savoring the local flavors.
+Evening: Enjoy a relaxing tea and pastry at Down Town, a local favorite spot known for its cozy ambiance.
+Night: Experience the vibrant atmosphere at Soltane Elchem, a family restaurant offering delectable dishes and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Dardouri is a highly-rated cafe (4.7 stars based on 6 reviews) located in Ksar Hellal, Kairouan. The precise location is at JVWM+78Q Cafe Dardouri, Ksar Hellal (35.6447353, 10.8880694). Unfortunately, we don't have further information regarding its offerings, opening hours, or contact details.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Dar ZMEN, located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775), is a popular restaurant in the area, offering a dining experience. It has received an impressive rating of 4.8 based on 5 reviews. Dar ZMEN operates from 10:00 to 17:00 on weekdays and is currently not closed on any specific days. The restaurant can be contacted by calling 52 216 933.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5324,12 +7348,65 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out **Cafe de l'Excellence**. Located at MV5R+67F Cafe de l'Excellence, Av. Habib Bourguiba, Ksar Hellal, this top-rated destination is perfect for **Cafe** lovers. With a rating of **4.5**, it's a must-visit spot. It's open during these hours: **Ouvert 24h/24**, but closed on . To get there, use these GPS coordinates: **35.664361783147, 10.870534903775**. For more details, visit their website at or call them at .</t>
+          <t>Cafe de l'Excellence is a highly-rated cafe located at Av. Habib Bourguiba, Ksar Hellal, Tunisia. It has an average rating of 4.5 out of 5 based on 24 reviews. The cafe is open 24 hours a day and offers a variety of services, including food and drinks. It is also a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated (4.5 stars) 24-hour cafe?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical significance of Maison de Congrès, a museum showcasing the rich history of Ksar Hellal.
+Mid-Morning:
+- Visit Ksar Hellal garden, a botanical paradise known for its stunning scenery and diverse flora.
+Midday:
+- Tantalize your taste buds with local delicacies at Cafe Delice, a highly-rated café offering a delightful selection of food and beverages.
+Afternoon:
+- Experience the vibrant ambiance of Gracia's, a renowned local creperie offering mouthwatering crepes and waffles.
+Evening:
+- Revel in the exceptional dining experience at The Volcano Restaurant, a highly-rated culinary destination serving exquisite lunch and dinner.
+Night:
+- Immerse yourself in the lively atmosphere of Down Town, a captivating tea room famous for its aromatic teas and pastries.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Delice is a highly rated cafe located in Ksar Hellal. The venue offers a rich selection of food and beverages. With a 4.1 star rating out of 18 reviews, the cafe is open from 06:00-23:30 with no day offs. Cafe Delice is situated at the following coordinates: (35.6447353, 10.8880694) and can be contacted directly through their website.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+The Volcano Restaurant is located in Volcano, Ksar Hellal, Tunisia, at the coordinates (35.6447353, 10.8880694). It offers a dining experience with a 4.4-star rating, categorized as a Restaurant. The restaurant serves lunch and dinner from 13:00 to 00:00, except on Sundays when it is closed. Contact can be made via phone at 98 288 755.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5435,12 +7512,65 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Chaneb Food shnb fwd located at En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070. This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. For more details, visit their website at https://www.google.com/maps/place/Chaneb+Food+%D8%B4%D9%86%D8%A7%D8%A8+%D9%81%D9%88%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x13021159d0f2f527:0xbfd2c392e0c9694c!8m2!3d35.648245!4d10.8846906!16s%2Fg%2F11qnt8fkxg!19sChIJJ_Xy0FkRAhMRTGnJ4JLD0r8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 336 336.</t>
+          <t>Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a top-rated Restauration rapide destination with a 4.4 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Exploring the historic charm of Maison de Congrès Museum
+**Mid-Morning:**
+- Trying local delicacies at Chapati La Cabana
+**Midday:**
+- Visiting the serene gardens of Ksar Hellal
+**Afternoon:**
+- Indulging in some retail therapy at Perfect Bio
+**Evening:**
+- Enjoying a delightful dinner at Soltane Elchem
+**Night:**
+- Relaxing with a stroll through the picturesque Ksar Hellal town square</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mosaique, located in Ksar Hellal (35.6447353, 10.8880694), is a highly-rated cafe with a 5.0 rating based on one review. It's conveniently situated at MV2W+73, making it easily accessible to locals and visitors alike. Despite limited information available, Cafe Mosaique has established itself as a popular spot for coffee lovers.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Located at (35.6447353, 10.8880694) in Ksar Hellal, "patisserie confiserie marocaine" is a highly rated (4.3/5) establishment that caters to diners from 07:00-19:00 all week long. Unfortunately, it does not have a website or social media presence, but you can contact them via phone at "98 208 908".
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5546,12 +7676,59 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Restaurant Al Moulouk located at MV3H+FWG Restaurant Al Moulouk, Av. Habib bourguiba, Ksar Hellal. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775.</t>
+          <t>Restaurant Al Moulouk is a restaurant located in Ksar Hellal (35.664362, 10.870535). It has an average rating of 4.0 out of 5 based on 18 reviews. The restaurant is open from 9:00 AM to 10:00 PM, 7 days a week.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>What is the top-rated restaurant destination in Ksar Hellal that offers a variety of Restaurant and is perfect for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historical Maison de Congrès for a glimpse into Ksar Hellal's past.
+Mid-Morning: Indulge in a delightful breakfast at Gracia's, savoring its renowned crepes and waffles.
+Midday: Visit the captivating Ksar Hellal garden, immersing yourself in its serene beauty and diverse flora.
+Afternoon: Take a guided tour of the Target Pizza pizzeria, witnessing the culinary artistry behind their tantalizing pizzas.
+Evening: Experience the authentic flavors of Tunisian cuisine at Dar ZMEN, renowned for its exquisite dining experience.
+Night: Relax and unwind at Down Town, sipping on aromatic tea while enjoying the ambiance of live music.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hugo Said is a highly-rated cafe located in Ksar Hellal, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is known for its friendly staff and relaxed atmosphere, and is a popular spot for locals and tourists alike.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Dar ZMEN, located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775), is a popular restaurant in the area, offering a dining experience. It has received an impressive rating of 4.8 based on 5 reviews. Dar ZMEN operates from 10:00 to 17:00 on weekdays and is currently not closed on any specific days. The restaurant can be contacted by calling 52 216 933.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5653,14 +7830,59 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Papa Grill located at Av. Hadj Ali Soua, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of Restaurant de grillades to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.64076, 10.86453. For more details, visit their link at https://www.google.com/maps/place/Papa+Grill/data=!4m7!3m6!1s0x130211a606f3c12b:0x12b7cb10e5cd86c2!8m2!3d35.6546785!4d10.8902283!16s%2Fg%2F11krrcshdm!19sChIJK8HzBqYRAhMRwobN5RDLtxI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 045 045.</t>
+          <t>Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where is a top-rated Restaurant de grillades destination located in Ksar Hellal, offering a must-visit experience with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical artifacts and exhibitions at Maison de Congrès, a popular museum in Ksar Hellal.
+Mid-Morning: Visit ALADIN PASTRY, a 5-star rated restaurant, and indulge in their delicious pastries while enjoying the friendly service.
+Midday: Try local cuisine at Gracia's, a highly rated creperie known for its delicious crepes and waffles.
+Afternoon: Take a leisurely stroll through Ksar hellal, a beautiful garden with a 5.0/5 rating, and soak in the natural beauty.
+Evening: Enjoy scenic views from Down Town, a popular tea room known for its delicious tea and pastries.
+Night: Relax and unwind at Laaroussi, a popular cafe with a cozy and inviting atmosphere and exceptional service.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Laaroussi is a popular cafe nestled at 5070 Rue Al Maari in Ksar Hellal. It has garnered a 5.0 rating from one review, highlighting its exceptional service. The cafe offers a cozy and inviting atmosphere, making it a perfect spot to unwind and savor your favorite beverages. Its precise location is at (35.6467207, 10.8825579), making it easily accessible for patrons.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+ALADIN PASTRY is a 5-star rated restaurant in ksar hellal, Tunisia. It is known for its delicious pastries and its friendly service. The restaurant is located at MV27+WVR ALADIN PASTRY, Unnamed Road, Ksar Hellal. It is open from 7:30am to 11:00pm, 7 days a week.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5766,12 +7988,60 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Restaurant spot, check out Volcano located at JVVR+Q95 Volcano, Ksar Hellal. This destination offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 13:00-00:00, but closed on dimanche. To get there, use these GPS coordinates:  35.6447353, 10.8880694. For more details, call them at 98 288 755.</t>
+          <t>Located in Volcano, Ksar Hellal at (35.6447353, 10.8880694), Volcano is a 4.4-rated restaurant. Open every day except Sundays from 13:00 to 00:00, Volcano offers a unique dining experience with its focus on local cuisine. You can contact them at their phone number, 98 288 755, or visit their website for more information.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated restaurant, Volcano, with a 4.4 rating and a range of cuisines to choose from?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Hellal, a town known for its gardens and historical landmarks.
+Mid-Morning: Visit the Maison de Congrès, a museum showcasing the town's history and culture.
+Midday: Try local cuisine at The Deal Sweet &amp; Salty, a fast food restaurant offering a variety of sweet and salty dishes.
+Afternoon: Enjoy a relaxing tea and pastries at Down Town, a popular tea room located just off the avenue aglabite.
+Evening: Have dinner at Soltane Elchem, a highly-rated family restaurant known for its delicious food and friendly service.
+Night: Experience cultural immersion at SULTANE EL CHAM, a pizzeria renowned for its delicious pizzas and excellent customer service.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Prestige is a cafe located in Ksar Hellal, Tunisia. It is a 5-star-rated cafe that serves its customers from 4:30 AM to midnight. It offers various services and products, making it an ideal place to relax and enjoy.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5877,12 +8147,59 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out SULTANE EL CHAM located at JVWR+PGW SULTANE EL CHAM, Av. Habib Bourguiba, Ksar Hellal. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on lundi. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/SULTANE+EL+CHAM/data=!4m7!3m6!1s0x1302177459df3353:0x9d6cb570a7ce5030!8m2!3d35.6467824!4d10.8913317!16s%2Fg%2F11rclk8xjd!19sChIJUzPfWXQXAhMRMFDOp3C1bJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 911 911.</t>
+          <t>SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated pizzeria in Ksar Hellal with a 4.4 rating?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Ksar Hellal garden, enjoying the walking trail and playground.
+Mid-Morning: Visit the Maison de Congrès museum to delve into the history and culture of the region.
+Midday: Savor local cuisine at the highly-rated Gracia's creperie, known for its delicious crepes and waffles.
+Afternoon: Experience the local flavors and ambiance at Soltane Elchem, a family restaurant offering cozy vibes and friendly service.
+Evening: Take a guided tour of Volcano, a 4.4-rated restaurant specializing in local cuisine and offering a unique dining experience.
+Night: Relax and unwind at Down Town, a popular tea room offering delicious tea and pastries, open late for a soothing end to the evening.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'instant Cafe is a cafe located in Ksar Hellal, Tunisia, offering a cozy ambiance and a variety of beverages. It is rated 5.0 by its customers, who have praised its relaxing atmosphere and friendly staff.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Located in Volcano, Ksar Hellal at (35.6447353, 10.8880694), Volcano is a 4.4-rated restaurant. Open every day except Sundays from 13:00 to 00:00, Volcano offers a unique dining experience with its focus on local cuisine. You can contact them at their phone number, 98 288 755, or visit their website for more information.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5984,16 +8301,60 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Target Pizza located at MV5R+396, Av. Habib Bourguiba. 
-This top-rated destination is perfect for Pizzeria lovers. 
-With a rating of 4.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. 
-For more details, visit their website at  or call them at 73 587 760.</t>
+          <t>Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated Pizzeria in Ksar Hellal that's worth visiting based on its GPS coordinates and top rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical artifacts and exhibitions at Maison de Congrès.
+Mid-Morning: Try local cuisine at the highly-rated creperie, Gracia's.
+Midday: Visit the SULTANE EL CHAM pizzeria for a delicious lunch.
+Afternoon: Enjoy the beautiful scenery at Ksar Hellal garden, perfect for a picnic or a relaxing stroll.
+Evening: Head to Papa Grill for a 4.0-rated grilled dinner experience.
+Night: Relax and unwind with tea and pastries at Down Town, known for its delicious tea and pastries.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Gara is a cafe located in Ksar Hellal. It has a rating of 4.0 based on 4 reviews.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Located at (35.6447353, 10.8880694) in Ksar Hellal, "patisserie confiserie marocaine" is a highly rated (4.3/5) establishment that caters to diners from 07:00-19:00 all week long. Unfortunately, it does not have a website or social media presence, but you can contact them via phone at "98 208 908".
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6095,14 +8456,59 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Hugo Said located at MV3Q+7Q4 Cafe Hugo Said, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe and Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hugo+Sa%C3%AFd/data=!4m7!3m6!1s0x130211fa81679f21:0x8ddbe2854efa6b88!8m2!3d35.6531383!4d10.8894671!16s%2Fg%2F11pz51wx06!19sChIJIZ9ngfoRAhMRiGv6ToXi240?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Hugo Said is a 4.3-rated cafe and restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and offers a wide range of food and drinks, including coffee, tea, pastries, sandwiches, and salads. The cafe also has free WiFi and a friendly staff.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>What highly-rated cafe in Ksar Hellal, offering a variety of dining options, is open 24 hours a day, making it a convenient choice for travelers?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Hellal Garden
+Mid-Morning: Trying local cuisine at Dreams Food
+Midday: Visiting Maison de Congrès Museum
+Afternoon: Enjoying a scenic walk at Ksar Hellal Garden
+Evening: Experiencing cultural immersion at Gare De Ksar Hellal Train Station
+Night: Indulging in a relaxing spa treatment at Perfect Bio</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mosaique, located in Ksar Hellal (35.6447353, 10.8880694), is a highly-rated cafe with a 5.0 rating based on one review. It's conveniently situated at MV2W+73, making it easily accessible to locals and visitors alike. Despite limited information available, Cafe Mosaique has established itself as a popular spot for coffee lovers.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6208,16 +8614,65 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great dining experience, check out Jus becha located at MV2P+3RJ Jus becha, Av. Des Nations Unis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-20:00, but closed on . 
-To get there, use these GPS coordinates: 35.65103274965, 10.888737730698. 
-For more details, visit their website at or call them at 20 500 223.</t>
+          <t>Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find the highly-rated restaurant Jus becha, renowned for its exceptional dining experience?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the beautiful Ksar Hellal garden, known for its stunning scenery and diverse flora.
+**Mid-Morning:**
+* Indulge in local cuisine at The Deal Sweet &amp; Salty, offering a delectable selection of sweet and savory dishes.
+**Midday:**
+* Visit Maison de Congrès, a museum showcasing historical artifacts and exhibitions, providing insights into the region's past.
+**Afternoon:**
+* Enjoy a relaxing tea and pastries at Down Town, renowned for its cozy atmosphere and delicious tea blends.
+**Evening:**
+* Savor authentic pizzas and tacos at Copa Cabana, a popular restaurant with high ratings and a central location.
+**Night:**
+* Experience cultural immersion at Gracia's creperie, offering mouthwatering crepes and a vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Elyssa is a cafe located in ksar hellal, Tunisia. It has a 5.0 rating based on 3 reviews. The cafe is open from 05:00 to 00:00 and is located at Av. Habib bourguiba, Ksar Hellal 5070. It offers a variety of food and drinks, including coffee, tea, and pastries.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Copa Cabana is a popular restaurant located in Ksar Hellal, Tunisia. With a rating of 4.1, it has received positive feedback from its customers, with reviews highlighting its delicious pizzas and tacos. The restaurant is open daily from 11:00 AM to 11:00 PM, offering a convenient dining experience. Its central location (35.6447353, 10.8880694) makes it easily accessible for both locals and tourists seeking a satisfying meal.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6315,12 +8770,60 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you find yourself in ksar hellal and searching for a place to dine, consider Restaurant flefel flyfl at JVWQ+97P. This highly-rated restaurant with a 4.5 rating is a perfect spot for any Restaurant lover. While specific details about its offerings aren't available, this establishment is open from 10:00-22:30 on weekdays. For more information, explore their website or contact them.</t>
+          <t>"Restaurant flefel flyfl" is located in Ksar Hellal, Tunisia at (35.6447353, 10.8880694) and is open from 10:00 to 22:30. It is a restaurant with a rating of 4.5 stars out of 6 reviews.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated restaurant located in Ksar Hellal with a 4.5 rating that is a great dining option for any restaurant enthusiast?</t>
+          <t>Day Plan:
+Morning: Exploring the beautiful garden Ksar hellal.
+Mid-Morning: Trying local cuisine at the highly-rated Café Le Colisée.
+Midday: Visiting the Maison de Congrès museum to delve into the history and culture of Ksar Hellal.
+Afternoon: Enjoying a tasty crepe at Gracia's, known for its delicious crepes and waffles.
+Evening: Relaxing with a cup of tea and pastries at the popular tea room, Down Town.
+Night: Experiencing the vibrant atmosphere at the highly-rated Soltane Elchem restaurant, known for its delicious food and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Le Colisée is a highly-rated café located in Ksar Hellal, Tunisia. Open from 3 AM to midnight every day, it offers a cozy ambiance and a welcoming atmosphere.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Ayoub Hamami is a highly-rated restaurant (5.0/5) located in Ksar Hellal, Tunisia. It remains open from 9:06 PM to 9:06 AM on Thursdays only. With a single review, it features a detailed description and a gallery of 1 photo.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6426,12 +8929,59 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cup of coffee, head to BAM COFFEE SHOP on Av. Habib Bourguiba. This top-rated destination is a favorite among Cafe lovers and offers a cozy environment for catching up with friends or getting some work done. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day and can be contacted at 52 334 344 for more information.</t>
+          <t>BAM COFFEE SHOP is a cozy cafe located in ksar hellal (coordinates: 35.664361783147, 10.870534903775) that offers a variety of coffee drinks and snacks. The cafe is open 24 hours a day, making it a convenient spot for a caffeine fix or a quick bite to eat. With a 4.5-star rating and 6 reviews on Google Maps, BAM COFFEE SHOP is a popular destination for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can coffee enthusiasts find a highly rated and beloved coffee shop with an inviting ambiance open around the clock?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Hellal Zone Industrielle for its train services and historical significance.
+Mid-Morning: Guided tour of Maison de Congrès to learn about the local history and culture.
+Midday: Trying local cuisine at Soltane Elchem for its cozy ambiance and delicious food.
+Afternoon: Relaxing with a massage at Perfect Bio to rejuvenate for the rest of the day.
+Evening: Shopping for souvenirs and local products at the Ksar Helal market.
+Night: Enjoying scenic views and a romantic dinner at Volcano for its local cuisine and beautiful ambiance.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Billionaire cafe is a cafe located in Billionaire cafe, Erriadh, Ksar Hellal.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Located in Volcano, Ksar Hellal at (35.6447353, 10.8880694), Volcano is a 4.4-rated restaurant. Open every day except Sundays from 13:00 to 00:00, Volcano offers a unique dining experience with its focus on local cuisine. You can contact them at their phone number, 98 288 755, or visit their website for more information.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6537,12 +9087,59 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Dar ZMEN located at JVVR+M88 Dar ZMEN, Av. Habib Bourguiba, Ksar Hellal. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 10:00-17:00, but closed on none. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website or call them at 52 216 933.</t>
+          <t>Dar ZMEN is a restaurant located in Ksar Hellal, Tunisia at (35.664361783147, 10.870534903775). It has a rating of 4.8 based on 5 reviews and offers a variety of dining options.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant destination with a focus on Restaurant is located at JVVR+M88 Dar ZMEN, Av. Habib Bourguiba, Ksar Hellal?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès, a museum showcasing historical artifacts and exhibitions.
+Mid-Morning: Indulge in traditional Tunisian cuisine at Chaneb Food.
+Midday: Visit Dar ZMEN, a highly-rated restaurant offering a variety of dining options.
+Afternoon: Relax and unwind with a cup of tea and pastries at Down Town, a popular tea room.
+Evening: Take a scenic stroll through Ksar Hellal, enjoying the beautiful garden's walking trails and picnic area.
+Night: Experience the vibrant ambiance of Soltane Elchem, a family-friendly restaurant offering delicious food and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+BAM COFFEE SHOP is a cozy cafe located in ksar hellal (coordinates: 35.664361783147, 10.870534903775) that offers a variety of coffee drinks and snacks. The cafe is open 24 hours a day, making it a convenient spot for a caffeine fix or a quick bite to eat. With a 4.5-star rating and 6 reviews on Google Maps, BAM COFFEE SHOP is a popular destination for locals and visitors alike.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Dar ZMEN is a restaurant located in Ksar Hellal, Tunisia at (35.664361783147, 10.870534903775). It has a rating of 4.8 based on 5 reviews and offers a variety of dining options.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6644,14 +9241,59 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal, check out Soltane Elchem located at JVWR+PGW Soltane Elchem, Av. Habib Bourguiba, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant familial lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:30. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775.</t>
+          <t>Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>What highly-rated Restaurant familial destination is a must-visit in Ksar Hellal, known for its local cuisine and 4.3-star rating?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Hellal Zone Industrielle
+Mid-Morning: Trying local cuisine at Papa Grill
+Midday: Visiting Maison de Congrès
+Afternoon: Participating in an event at Down Town
+Evening: Exploring Ksar Hellal garden
+Night: Relaxing with a spa treatment at Perfect Bio</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the city of Ksar Hellal at the coordinates (35.6467207, 10.8825579), mqh~ Hm@ zyzy is a cafe that offers a cozy atmosphere and a variety of drinks and snacks. Open 24 hours a day, it's a great place to relax and socialize, or to grab a quick bite to eat.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Located at (35.6447353, 10.8880694) in Ksar Hellal, "patisserie confiserie marocaine" is a highly rated (4.3/5) establishment that caters to diners from 07:00-19:00 all week long. Unfortunately, it does not have a website or social media presence, but you can contact them via phone at "98 208 908".
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6757,16 +9399,65 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cafe, check out Cafe Elyssa located at Av. Habib bourguiba, Ksar Hellal 5070. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. 
-To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. 
-For more details, visit their website or call them at 55 111 108.</t>
+          <t>Cafe Elyssa is a cafe located in ksar hellal, Tunisia. It has a 5.0 rating based on 3 reviews. The cafe is open from 05:00 to 00:00 and is located at Av. Habib bourguiba, Ksar Hellal 5070. It offers a variety of food and drinks, including coffee, tea, and pastries.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Cafe Elyssa, known for its exceptional cafe options, located in Ksar Hellal?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical Maison de Congrès and delve into the region's past.
+**Mid-Morning:**
+* Immerse yourself in the flavors of Tunisia with a delightful breakfast at Chaneb Food.
+**Midday:**
+* Visit the beautiful Ksar Hellal garden, offering a tranquil escape amidst nature's beauty.
+**Afternoon:**
+* Indulge in a tasty lunch at Gracia's, renowned for its delectable crepes and waffles.
+**Evening:**
+* Embark on a culinary adventure at Soltane Elchem, savoring the authentic flavors of Tunisian cuisine.
+**Night:**
+* Experience the vibrant atmosphere of Down Town tea room, sipping on aromatic teas and indulging in delectable pastries.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Laaroussi is a popular cafe nestled at 5070 Rue Al Maari in Ksar Hellal. It has garnered a 5.0 rating from one review, highlighting its exceptional service. The cafe offers a cozy and inviting atmosphere, making it a perfect spot to unwind and savor your favorite beverages. Its precise location is at (35.6467207, 10.8825579), making it easily accessible for patrons.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Located in Volcano, Ksar Hellal at (35.6447353, 10.8880694), Volcano is a 4.4-rated restaurant. Open every day except Sundays from 13:00 to 00:00, Volcano offers a unique dining experience with its focus on local cuisine. You can contact them at their phone number, 98 288 755, or visit their website for more information.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6872,12 +9563,59 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you are in ksar hellal and looking for a delicious dining experience, head to patisserie confiserie marocaine. This popular restaurant is located at MV2M+53W patisserie confiserie marocaine. With a rating of 4.3, it's a must-visit spot for Restaurant enthusiasts. It's open during these hours: 07:00-19:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/patisserie+confiserie+marocaine/data=!4m7!3m6!1s0x13021131c52af411:0xccab1084943d90f6!8m2!3d35.6504966!4d10.8827157!16s%2Fg%2F11cpfw171g!19sChIJEfQqxTERAhMR9pA9lIQQq8w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 208 908.</t>
+          <t>Located at (35.6447353, 10.8880694) in Ksar Hellal, "patisserie confiserie marocaine" is a highly rated (4.3/5) establishment that caters to diners from 07:00-19:00 all week long. Unfortunately, it does not have a website or social media presence, but you can contact them via phone at "98 208 908".</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated patisserie in Ksar Hellal, known for its delicious dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful scenery and diverse plant life at Ksar Hellal, a charming garden rated 4.5 stars.
+Mid-Morning: Visit the fascinating Maison de Congrès museum to delve into the rich history and culture of Ksar Hellal.
+Midday: Satisfy your taste buds with a delightful lunch at Soltane Elchem, a highly-rated family restaurant known for its delicious food and cozy ambiance.
+Afternoon: Experience the local flavors and cuisine by trying traditional dishes at Chapati La Cabana, a fast food restaurant with a 5.0 rating.
+Evening: Indulge in some retail therapy at Perfect Bio, a health and beauty store offering a wide range of products to enhance your well-being.
+Night: End the day on a relaxing note with a rejuvenating spa treatment or massage at a local hotel or spa.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Prestige located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775). This popular cafe has garnered excellent feedback, boasting a 5-star rating.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Restaurant Ezzarda is located in Ksar Hellal. Restaurant Ezzarda has gotten 27 reviews and is rated 4.4 out of 5 stars. Restaurant Ezzarda is in the category of Restaurant and offers a variety of services and amenities. Restaurant Ezzarda's coordinates are (35.6447353, 10.8880694). Restaurant Ezzarda is a popular spot for locals and tourists alike.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6979,14 +9717,61 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Dreams food. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Dreams+food/data=!4m7!3m6!1s0x1302113b057ed2b5:0x2f98f71cab7fd94f!8m2!3d35.6448057!4d10.8890365!16s%2Fg%2F11gxvscw0v!19sChIJtdJ-BTsRAhMRT9l_qxz3mC8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 844 006.</t>
+          <t>Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you experience highly-rated cuisine with a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Hellal Garden (Enjoy the beauty of nature and tranquility)
+Mid-Morning: Trying local cuisine at Chaneb Food shnb fwd (Indulge in authentic Tunisian flavors)
+Midday: Visiting Maison de Congrès (Immerse yourself in history and culture)
+Afternoon: Relaxing with a traditional tea experience at Down Town tea room (Savor the local tea culture)
+Evening: Enjoying dinner at Willy's Food (Experience a variety of dishes in a lively setting)
+Night: Taking a guided tour of Gare De Ksar Hellal (Discover the significance of the train station)</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant cafe is a cafe in ksar hellal.
+It is located at (35.6418069, 10.8925471) and has a 5.0 rating.
+Its main category is Cafe.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and serves a variety of dishes. The restaurant has a rating of 5.0 out of 5 stars on Google Maps. It is located at the coordinates 35.6467207, 10.8825579.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7088,13 +9873,59 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated restaurant, visit OMEK TANGO - 'mWk Tnqw at Av. Hadj Ali Soua, Ksar Hellal 5070. 
-It's open from 10:00-18:00, but closed on Monday. With a rating of 5.0, it's a must-visit spot.</t>
+          <t>OMEK TANGO is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating on Google based on 2 reviews and is closed on Mondays. The restaurant is open from 10:00-18:00. Unfortunately, no detailed description or information about the menu or other offerings is available at this time.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where in ksar hellal can you find a highly-rated restaurant (rating of 5.0) called OMEK TANGO - 'mWk Tnqw?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès, a museum showcasing historical artifacts.
+Mid-Morning: Visit Ksar Hellal, a garden with a wide variety of plants and flowers.
+Midday: Try local cuisine at Cafe Dardouri, a highly-rated cafe with delicious food.
+Afternoon: Relax with a tea and pastry at Down Town, a popular tea room.
+Evening: Participate in an event or activity at Station Taxi.
+Night: Experience cultural immersion at SULTANE EL CHAM, a local pizzeria.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Dardouri is a highly-rated cafe (4.7 stars based on 6 reviews) located in Ksar Hellal, Kairouan. The precise location is at JVWM+78Q Cafe Dardouri, Ksar Hellal (35.6447353, 10.8880694). Unfortunately, we don't have further information regarding its offerings, opening hours, or contact details.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating based on one review and offers 24 hour service.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7196,12 +10027,59 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Willy's Food located at JVRQ+R6W Willy's Food, Rue al-rebat, Ksar Hellal 5070. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more details, visit their website at https://www.google.com/maps/place/Willy%E2%80%99s+Food/data=!4m7!3m6!1s0x130211a531d402fd:0x5590516f4175306c!8m2!3d35.6421108!4d10.8880715!16s%2Fg%2F11rj44r0m5!19sChIJ_QLUMaURAhMRbDB1QW9RkFU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 673 995.</t>
+          <t>Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating based on one review and offers 24 hour service.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>If you're looking for a top-rated restaurant in Ksar Hellal, where can you go to enjoy a range of dining options?</t>
+          <t>Day Plan:
+Morning: Explore historical artifacts at Maison de Congrès
+Mid-Morning: Try local Tunisian cuisine at Chaneb Food shnb fwd
+Midday: Visit the highly rated creperie Gracia's for delicious crepes and waffles
+Afternoon: Enjoy scenic views at Ksar Hellal, a beautiful garden
+Evening: Savory grilled dishes at Papa Grill
+Night: Relax and unwind at the popular tea room Down Town for tea and pastries</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Ksar Hellal, cafe.te.ria Boughzala is a cafe open from 6 AM til 10 PM. Being one of the most visited places of the city with 1 review and a rating of 5.0, it offers you a great time and a pleasant moment to enjoy with friends and family.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7307,14 +10185,59 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something delicious, head to ALADIN PASTRY located at MV27+WVR ALADIN PASTRY, Unnamed Road. 
-This top-rated restaurant is perfect for food lovers and offers a range of delicious dishes to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-23:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, call them at 53 590 809.</t>
+          <t>ALADIN PASTRY is a 5-star rated restaurant in ksar hellal, Tunisia. It is known for its delicious pastries and its friendly service. The restaurant is located at MV27+WVR ALADIN PASTRY, Unnamed Road, Ksar Hellal. It is open from 7:30am to 11:00pm, 7 days a week.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated culinary destination called ALADIN PASTRY in Ksar Hellal, known for its exceptional food and convenient location?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Maison de Congrès with its fascinating exhibits (Maison de Congrès)
+Mid-Morning: Trying local cuisine at Chaneb Food shnb fwd for some authentic Tunisian flavors (Chaneb Food shnb fwd)
+Midday: Visiting the beautiful Ksar hellal garden for a leisurely stroll and nature appreciation (Ksar hellal)
+Afternoon: Enjoying tea and pastries at Down Town, a popular tea room for relaxation and refreshments (Down Town)
+Evening: Experiencing the cultural ambiance at Soltane Elchem, a family restaurant known for its cozy atmosphere and delicious food (Soltane Elchem)
+Night: Relaxing and unwinding with a rejuvenating experience at a spa/hotel in the area for a tranquil end to the day (Perfect Bio)</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hugo Said is a highly-rated cafe located in Ksar Hellal, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is known for its friendly staff and relaxed atmosphere, and is a popular spot for locals and tourists alike.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7412,12 +10335,59 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and searching for a delightful dining experience, head to Fast food coba, located at JVWF+485. This highly-rated restaurant boasts a 5.0 rating, making it a must-visit spot for food enthusiasts. You can contact them at 50 530 430 for inquiries or reservations.</t>
+          <t>Fast food coba is a restaurant located in Ksar Hellal, Tunisia, at the coordinates (35.6447353, 10.8880694). It has a rating of 5.0 based on 1 review and is categorized as a restaurant. The phone number for the restaurant is 50 530 430.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you indulge in an exceptional dining experience with a fantastic 5.0 rating while exploring Ksar Hellal?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Hellal Train Station
+Mid-Morning: Visit Maison de Congrès Museum to learn about the local history and culture.
+Midday: Try local cuisine at Chaneb Food shnb fwd for an authentic Tunisian dining experience.
+Afternoon: Enjoy scenic views at Ksar Hellal Garden, admiring the beautiful greenery and floral displays.
+Evening: Experience cultural immersion at Soltane Elchem, enjoying delicious food in a family-friendly ambiance.
+Night: Relax and unwind at Down Town Tea Room, sipping on flavorful teas and savoring pastries.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Ksar Hellal at the coordinates (35.6447353, 10.8880694), Cafe.te.ria Boughzala is a cafe with a 5.0 rating. It offers a wide range of services and products, including sitting areas, a cozy atmosphere, and delicious coffee and snacks.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+OMEK TANGO is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating on Google based on 2 reviews and is closed on Mondays. The restaurant is open from 10:00-18:00. Unfortunately, no detailed description or information about the menu or other offerings is available at this time.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7523,14 +10493,59 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for some great food, check out Ayoub hamami located at Unnamed Road, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant lovers and offers a range to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 21:06-09:06, but closed on lundi, mardi, mercredi, vendredi, samedi, dimanche. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website or call them at 94 968 219.</t>
+          <t>Ayoub Hamami is a highly-rated restaurant (5.0/5) located in Ksar Hellal, Tunisia. It remains open from 9:06 PM to 9:06 AM on Thursdays only. With a single review, it features a detailed description and a gallery of 1 photo.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Question: What is the top-rated dining establishment with a 5.0 rating located in Ksar Hellal, known for its extensive menu and situated at specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Hellal Zone Industrielle railway station
+Mid-Morning: Trying local cuisine at ALADIN PASTRY
+Midday: Visiting Maison de Congrès museum
+Afternoon: Enjoying a scenic walk at Ksar Hellal garden
+Evening: Relaxing with a cup of tea at Down Town tea room
+Night: Experiencing cultural immersion at Musée de Sousse</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Dardouri, located in the heart of Ksar Hellal at JVPC+JVR, stands out with its exceptional rating of 5.0 stars based on one review. While there's currently no detailed description or website to provide further insights, its precise coordinates (35.6467207, 10.8825579) allow for easy navigation. The café's primary category is Cafe, offering a cozy ambiance and delectable concoctions to its patrons.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+ALADIN PASTRY is a 5-star rated restaurant in ksar hellal, Tunisia. It is known for its delicious pastries and its friendly service. The restaurant is located at MV27+WVR ALADIN PASTRY, Unnamed Road, Ksar Hellal. It is open from 7:30am to 11:00pm, 7 days a week.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7628,14 +10643,59 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Chapati La Cabana located at MV2Q+WM6 Chapati La Cabana, Av. Habib Bourguiba, Ksar Hellal. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/Chapati+La+Cabana/data=!4m7!3m6!1s0x130211256c0a1943:0x37ab32a347e68d7a!8m2!3d35.6522828!4d10.8891435!16s%2Fg%2F11h7fxx756!19sChIJQxkKbCURAhMReo3mR6Myqzc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>In Ksar Hellal, where can you find a highly-rated destination known for its Restauration rapide offerings, with a perfect rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Hellal garden with its beautiful scenery and diverse flora (Ksar Hellal)
+Mid-Morning: Trying local cuisine at Chapati La Cabana, known for its delicious wraps and salads (Chapati La Cabana)
+Midday: Visiting Maison de Congrès, a museum showcasing historical artifacts and exhibitions (Maison de Congrès)
+Afternoon: Relaxing with a rejuvenating spa treatment at Perfect Bio, a health and beauty store (Perfect Bio)
+Evening: Participating in the lively atmosphere at Down Town, a tea room famous for its delightful tea and pastries (Down Town)
+Night: Experiencing the vibrant ambiance and delicious pizzas at SULTANE EL CHAM, a pizzeria with excellent customer service (SULTANE EL CHAM)</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+In Ksar Hellal, Cafe wifi stands out as a cozy and inviting spot for locals and visitors alike. With its rating of 5.0, the cafe has garnered positive feedback from its patrons. Nestled at the coordinates (35.6447353, 10.8880694), it offers a convenient location for those seeking a place to relax and connect. Although additional information such as contact details and hours of operation are unavailable, Cafe wifi is a promising destination for anyone looking to enjoy a delightful cafe experience.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+Ayoub Hamami is a highly-rated restaurant (5.0/5) located in Ksar Hellal, Tunisia. It remains open from 9:06 PM to 9:06 AM on Thursdays only. With a single review, it features a detailed description and a gallery of 1 photo.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7733,12 +10793,66 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a Cafe to visit, check out Billionaire cafe located at MV4C+CG6 Billionaire cafe, Erriadh, Ksar Hellal. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>Billionaire cafe is a cafe located in Billionaire cafe, Erriadh, Ksar Hellal.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in Ksar Hellal that is ideal for Cafe enthusiasts, boasting a 4.0 rating and precise GPS coordinates?</t>
+          <t>Day Plan:
+Morning:
+- Explore the beautiful greenery at Ksar Hellal Garden.
+Mid-Morning:
+- Engage in cultural immersion by visiting Maison de Congrès, a museum showcasing historical artifacts and exhibits.
+Midday:
+- Savor local cuisine and enjoy the cozy ambiance at Soltane Elchem, a highly-rated family restaurant.
+Afternoon:
+- Take a stroll through the Cafetiria Aymen, a local cafe with high ratings and positive reviews.
+Evening:
+- Indulge in delicious pizzas at Target Pizza, a highly-rated pizzeria offering a mouthwatering menu.
+Night:
+- Relax and unwind with a tea and pastries at Down Town, a popular tea room with a 4.5-star rating.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafetiria Aymen is a cafe located at (35.6447353, 10.8880694) in ksar hellal. It has a rating of 5.0 based on 2 reviews.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+The Volcano Restaurant is located in Volcano, Ksar Hellal, Tunisia, at the coordinates (35.6447353, 10.8880694). It offers a dining experience with a 4.4-star rating, categorized as a Restaurant. The restaurant serves lunch and dinner from 13:00 to 00:00, except on Sundays when it is closed. Contact can be made via phone at 98 288 755.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7840,15 +10954,59 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out The Deal Sweet &amp; Salty located at 165-157 Av. Habib bourguiba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.86547, -118.3863. 
-For more details, visit their website at https://www.google.com/maps/place/The+Deal+Sweet+%26+Salty/data=!4m7!3m6!1s0x1302116f6bf712f9:0x99037a016c94bf79!8m2!3d35.6473278!4d10.8850651!16s%2Fg%2F11q8vzn62s!19sChIJ-RL3a28RAhMReb-UbAF6A5k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 367 217.</t>
+          <t>The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restauration rapide spot with a 5.0 rating in Ksar Hellal?</t>
+          <t>Day Plan:
+Morning: Explore the Maison de Congrès, a historical museum showcasing cultural artifacts.
+Mid-Morning: Visit Perfect Bio for a health and beauty shopping experience.
+Midday: Savour authentic Tunisian cuisine at Chaneb Food shnb fwd.
+Afternoon: Relax in the scenic Ksar Hellal garden, enjoying the walking trail and picnic area.
+Evening: Try local crepes and waffles at Gracia's creperie.
+Night: Experience a cozy ambiance and delicious food at Soltane Elchem family restaurant, ending the day on a warm note.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de l'Excellence is a 4.5-rated cafe located in Ksar Hellal, offering around-the-clock service. It features a prime location at Av. Habib Bourguiba, making it easily accessible to both locals and visitors. Cafe de l'Excellence  is positioned at coordinates (35.664361783147, 10.870534903775), offering a convenient destination for coffee lovers and those seeking a pleasant ambiance.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7946,12 +11104,59 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a Gare routiere, check out station louage located at station louage, Ksar Hellal. This top-rated destination offers a range of Gare routiere to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Gare routiere with a range of options located at station louage in Ksar Hellal?</t>
+          <t>Day Plan:
+Morning: Explore Maison de Congrès for a glimpse into local history and culture.
+Mid-Morning: Visit Ksar Hellal, a beautiful garden offering serene walking trails and relaxation amidst nature.
+Midday: Indulge in local cuisine at Restaurant flfel flyfl, renowned for its delicious offerings and authentic ambiance.
+Afternoon: Explore the bustling station louage, a hub of transportation, and experience the local way of life.
+Evening: Visit the highly-rated pizzeria Target Pizza for a culinary delight, enjoying its delectable pizzas and cozy atmosphere.
+Night: Stroll through the charming Down Town tea room, savor the exquisite tea and pastries, and soak in its relaxing ambiance.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hugo Said is a highly-rated cafe located in Ksar Hellal, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is known for its friendly staff and relaxed atmosphere, and is a popular spot for locals and tourists alike.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+"Restaurant flefel flyfl" is located in Ksar Hellal, Tunisia at (35.6447353, 10.8880694) and is open from 10:00 to 22:30. It is a restaurant with a rating of 4.5 stars out of 6 reviews.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8049,12 +11254,66 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal, station taxi, a top-rated Gare routiere destination with a rating of 3.3, offers a range of services for Gare routiere enthusiasts. Located at station taxi, Ksar Hellal, its GPS coordinates are 35.0383756, 9.4876022. Visit their website or call them for more information.</t>
+          <t>**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination for Gare routiere enthusiasts in Ksar Hellal, known for its range of services, located at GPS coordinates 35.0383756, 9.4876022?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical artifacts and exhibitions at **Maison de Congrès** (Museum)
+**Mid-Morning:**
+* Try local Tunisian cuisine at **Chaneb Food shnb fwd** (Fast-Food Restaurant)
+**Midday:**
+* Relax with a refreshing cup of tea and pastries at **Down Town** (Tea Room)
+**Afternoon:**
+* Engage in outdoor activities like hiking or birdwatching at **Ksar hellal** (Beautiful Garden)
+**Evening:**
+* Enjoy a delicious dinner of grilled dishes at **Papa Grill** (Grill Restaurant)
+**Night:**
+* Experience cultural immersion at **Soltane Elchem** (Family Restaurant)</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Ksar Hellal at coordinates (35.6447353, 10.8880694), Cafe Hugo Said is a cozy retreat for coffee enthusiasts and diners alike. As a reputable Cafe, it offers a warm and inviting atmosphere where guests can indulge in a variety of culinary delights.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+OMEK TANGO is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating on Google based on 2 reviews and is closed on Mondays. The restaurant is open from 10:00-18:00. Unfortunately, no detailed description or information about the menu or other offerings is available at this time.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8152,14 +11411,59 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a Gare routiere, check out station louage located at station louage, Ksar Hellal. 
-This top-rated destination offers a range of Gare routiere to choose from. 
-With a rating of 3.6, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/station+louage/data=!4m7!3m6!1s0x1302112b66d4af2b:0x2c499471088245a5!8m2!3d35.643526!4d10.8887011!16s%2Fg%2F1thwllrq!19sChIJK6_UZisRAhMRpUWCCHGUSSw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Gare routiere in Ksar Hellal with a rating of 3.6?</t>
+          <t>Day Plan:
+Morning: Explore the historical Maison de Congrès, showcasing Tunisia's rich past and culture.
+Mid-Morning: Indulge in traditional Tunisian cuisine at Chaneb Food, known for its authentic flavors.
+Midday: Visit the picturesque Ksar Hellal Garden, immerse yourself in its vibrant flora, and capture the beauty of nature.
+Afternoon: Enjoy a relaxing stroll through the Gare De Ksar Hellal train station, marveling at its architectural design and historical significance.
+Evening: Savor a delightful dinner at ALADIN PASTRY, renowned for its exceptional pastries and warm ambiance.
+Night: Experience the lively atmosphere at Down Town tea room, relish its delectable treats, and unwind after a fulfilling day.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de l'Excellence is a 4.5-rated cafe located in Ksar Hellal, offering around-the-clock service. It features a prime location at Av. Habib Bourguiba, making it easily accessible to both locals and visitors. Cafe de l'Excellence  is positioned at coordinates (35.664361783147, 10.870534903775), offering a convenient destination for coffee lovers and those seeking a pleasant ambiance.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+ALADIN PASTRY is a 5-star rated restaurant in ksar hellal, Tunisia. It is known for its delicious pastries and its friendly service. The restaurant is located at MV27+WVR ALADIN PASTRY, Unnamed Road, Ksar Hellal. It is open from 7:30am to 11:00pm, 7 days a week.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8257,14 +11561,60 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out station louage located at station louage, Ksar Hellal. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/station+louage/data=!4m7!3m6!1s0x1302112b66d4af2b:0x2c499471088245a5!8m2!3d35.643526!4d10.8887011!16s%2Fg%2F1thwllrq!19sChIJK6_UZisRAhMRpUWCCHGUSSw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>What top-rated Gare routiere destination is located in Ksar Hellal, offering a variety of Gare routiere options and a 3.6 rating?</t>
+          <t>Day Plan:
+Morning: Visit Maison de Congrès to delve into the history and culture of Ksar Hellal.
+Mid-Morning: Explore the beautiful Ksar hellal garden to enjoy scenic views and fresh air.
+Midday: Try local cuisine at Papa Grill, renowned for its grilled dishes and cozy ambiance.
+Afternoon: Experience cultural immersion at SULTANE EL CHAM, savor the delicious food and friendly service in a traditional pizzeria setting.
+Evening: Enjoy scenic views at Willy's Food, while indulging in delectable dishes in a 24/7 dining atmosphere.
+Night: Relax with a sweet treat at Down Town, a popular tea room known for its delicious tea and pastries.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Prestige located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775). This popular cafe has garnered excellent feedback, boasting a 5-star rating.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and serves a variety of dishes. The restaurant has a rating of 5.0 out of 5 stars on Google Maps. It is located at the coordinates 35.6467207, 10.8825579.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8362,12 +11712,60 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a train station, check out Gare De Ksar Hellal located at Gare De Ksar Hellal, Ksar Hellal. This top-rated destination is perfect for train station lovers and offers a range of amenities to choose from. With a rating of 3.9, it's a must-visit spot. Use these GPS coordinates to get there: (35.6447353, 10.8880694). For more details, visit their website at https://www.google.com/maps/place/Gare+De+Ksar+Hellal/data=!4m7!3m6!1s0x130216d08603b071:0x86157bd658a11928!8m2!3d35.645105!4d10.9007267!16s%2Fg%2F1tht9c11!19sChIJcbADhtAWAhMRKBmhWNZ7FYY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>What is the highly-rated train station in Ksar Hellal with a convenient location and access to various amenities?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Hellal (taking a guided tour of the Maison de Congrès museum)
+Mid-Morning: Try local cuisine at Chaneb Food shnb fwd
+Midday: Visit the Ksar Hellal garden
+Afternoon: Enjoy scenic views at the Target Pizza restaurant
+Evening: Participate in an event or activity at Station Taxi in Ksar Hellal
+Night: Relax with a massage at Perfect Bio</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Billionaire cafe is a cafe located in ksar hellal, Tunisia. It has a rating of 4.0 and is located at the coordinates (35.6447353, 10.8880694).
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and serves a variety of dishes. The restaurant has a rating of 5.0 out of 5 stars on Google Maps. It is located at the coordinates 35.6467207, 10.8825579.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8469,12 +11867,59 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal, check out Station service Agil KSAR HELAL located at  Av. Habib bourguiba, Ksar Hellal. With a rating of 4.1, it's a must-visit spot for Station-service lovers. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6609257, 10.8741564.</t>
+          <t>Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>What is the highly-rated Station-service in Ksar Hellal, conveniently open 24 hours a day, located at Av. Habib bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring the beautiful Ksar Hellal garden (Ksar Hellal).
+Mid-Morning: Trying local cuisine at the highly-rated Gracia's Creperie (Ksar Hellal).
+Midday: Visiting the Maison de Congrès museum to immerse yourself in local history and culture (Ksar Hellal).
+Afternoon: Relaxing with a soothing spa treatment at Perfect Bio Health and Beauty Store (Ksar Hellal).
+Evening: Enjoying dinner at the cozy Soltane Elchem family restaurant, known for its delicious food and friendly service (Ksar Hellal).
+Night: Experiencing the vibrant atmosphere of Down Town tea room, savoring its delightful tea and pastries (Ksar Hellal).</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Elyssa is a 5-star rated cafe located in Ksar Hellal, Tunisia, with coordinates (35.658157084052, 10.87577514692). It is open daily from 5 AM to midnight and offers a wide range of cafe-style food and drinks.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.
+OMEK TANGO is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating on Google based on 2 reviews and is closed on Mondays. The restaurant is open from 10:00-18:00. Unfortunately, no detailed description or information about the menu or other offerings is available at this time.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8572,14 +12017,59 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out station taxi located at station taxi, Ksar Hellal. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of categories to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.0383756, 9.4876022. For more details, visit their website at link or call them at phone number is currently unavailable.</t>
+          <t>Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a top-rated destination for Gare routiere enthusiasts with a variety of categories?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Hellal Park
+Mid-Morning: Trying local cuisine at Chaneb Food
+Midday: Visiting Maison de Congres Museum
+Afternoon: Enjoying scenic views at Jardin public de Ksar Hellal
+Evening: Participating in an event at Event Space in Ksar Hellal
+Night: Relaxing with a massage at Perfect Bio</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mosaique, located in Ksar Hellal (35.6447353, 10.8880694), is a highly-rated cafe with a 5.0 rating based on one review. It's conveniently situated at MV2W+73, making it easily accessible to locals and visitors alike. Despite limited information available, Cafe Mosaique has established itself as a popular spot for coffee lovers.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Copa Cabana is a popular restaurant located in Ksar Hellal, Tunisia. With a rating of 4.1, it has received positive feedback from its customers, with reviews highlighting its delicious pizzas and tacos. The restaurant is open daily from 11:00 AM to 11:00 PM, offering a convenient dining experience. Its central location (35.6447353, 10.8880694) makes it easily accessible for both locals and tourists seeking a satisfying meal.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8689,12 +12179,70 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a gas station, check out Shell located at Av. Habib bourguiba, Ksar Hellal 5070. This top-rated destination is perfect for Station-service lovers and also offers Station de lavage automobile, Superette to choose from. With a rating of 3.3, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044727-ksar-helal or call them at 71 249 149.</t>
+          <t>Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Which highly-rated gas station in Ksar Hellal offers both Station-service lovers and Station de lavage automobile, Superette options?</t>
+          <t>Day Plan:
+Morning:
+* Explore the historical artifacts and exhibitions at Maison de Congrès.
+* Visit the beautiful garden at Ksar hellal for scenic views.
+Mid-Morning:
+* Try local cuisine at Soltane Elchem for a cozy ambiance and delicious food.
+* Take a guided tour of the Target Pizza to learn about their highly-rated pizzas.
+Midday:
+* Enjoy traditional Tunisian dishes at Chaneb Food for a taste of authentic flavors.
+Afternoon:
+* Relax with a cup of tea and pastries at Down Town for a cozy and refreshing experience.
+* Engage in outdoor activities like walking or running at the Avenue aglabite.
+Evening:
+* Visit Willy's Food for a 24-hour dining experience.
+* Participate in a cultural immersion at Gracia's for delicious crepes and waffles.
+Night:
+* Enjoy scenic views at the Shell gas station while grabbing a bite to eat.
+* Engage in outdoor activities like stargazing at the Papa Grill restaurant.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mosaique, located in Ksar Hellal (35.6447353, 10.8880694), is a highly-rated cafe with a 5.0 rating based on one review. It's conveniently situated at MV2W+73, making it easily accessible to locals and visitors alike. Despite limited information available, Cafe Mosaique has established itself as a popular spot for coffee lovers.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating based on one review and offers 24 hour service.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8792,12 +12340,59 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a Gare, check out Ksar Helal Zone Industrielle located at Ksar Helal Zone Industrielle, Ksar Hellal. This top-rated destination offers a range of Gare to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.64773, 10.89046. For more details, visit their website at https://www.google.com/maps/place/Ksar+Helal+Zone+Industrielle/data=!4m7!3m6!1s0x130216cee2521f81:0x9b03890d818450b1!8m2!3d35.6519228!4d10.8986172!16s%2Fg%2F1tczml55!19sChIJgR9S4s4WAhMRsVCEgQ2JA5s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>What highly-rated Gare can be found at the GPS coordinates 35.64773, 10.89046 in Ksar Hellal and boasts a website for further information?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring Ksar Hellal's historical side at Maison de Congrès, showcasing fascinating historical artifacts and exhibitions.
+Mid-Morning: Take a short stroll to Jus becha, a local restaurant known for its delicious cuisine and positive customer reviews, for a delightful breakfast.
+Midday: Head to Perfect Bio, a health and beauty store, to pick up any necessary items or indulge in self-care products to enhance your well-being.
+Afternoon: Enjoy a relaxing afternoon at Ksar Hellal garden, known for its picturesque scenery and diverse plant life. Take advantage of the beautiful surroundings for a picnic or simply soak in the tranquil atmosphere.
+Evening: Experience the local culinary delights at The Deal Sweet &amp; Salty, a fast-food restaurant offering a range of savory and sweet dishes.
+Night: End the day on a high note by immersing yourself in the vibrant atmosphere of Soltane Elchem, a family restaurant renowned for its cozy ambiance, delicious food, and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Ksar Hellal, cafe.te.ria Boughzala is a cafe open from 6 AM til 10 PM. Being one of the most visited places of the city with 1 review and a rating of 5.0, it offers you a great time and a pleasant moment to enjoy with friends and family.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).
+Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.
+SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8907,12 +12502,59 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a reliable gas station, check out SHELL Petrol Station at Av. Habib Bourguiba, Ksar Hellal 5070. This top-rated spot has a rating of 4.0 and is open 24 hours a day. It also offers car wash services and a convenient store. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044732-sayada or call them at 71 249 149.</t>
+          <t>SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where in Ksar Hellal can you find a highly-rated gas station that provides convenience through its 24-hour service, car wash, and store?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful garden at Ksar Hellal
+Mid-Morning: Visit the Maison de Congrès museum to learn about the history and culture of the area
+Midday: Try local cuisine at Soltane Elchem, a highly-rated family restaurant known for its delicious food
+Afternoon: Relax with a cup of tea and pastries at Down Town, a popular tea room with a cozy atmosphere
+Evening: Participate in a cultural immersion experience at the bus station "Station Louage," where you can interact with locals and learn about their daily lives
+Night: Enjoy scenic views from the railway station at Ksar Helal Zone Industrielle</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the city of Ksar Hellal at the coordinates (35.6467207, 10.8825579), mqh~ Hm@ zyzy is a cafe that offers a cozy atmosphere and a variety of drinks and snacks. Open 24 hours a day, it's a great place to relax and socialize, or to grab a quick bite to eat.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Restaurant Ezzarda is located in Ksar Hellal. Restaurant Ezzarda has gotten 27 reviews and is rated 4.4 out of 5 stars. Restaurant Ezzarda is in the category of Restaurant and offers a variety of services and amenities. Restaurant Ezzarda's coordinates are (35.6447353, 10.8880694). Restaurant Ezzarda is a popular spot for locals and tourists alike.
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9014,12 +12656,59 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out OLA Petrol Station located at MV4G+MJM OLA Petrol Station, Ksar Hellal. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated station service with a wide selection of options in Ksar Hellal?</t>
+          <t>Day Plan:
+Morning: Exploring the beautiful gardens of Ksar hellal.
+Mid-Morning: Trying local cuisine at Chaneb Food, known for traditional Tunisian dishes.
+Midday: Visiting Maison de Congrès, a popular destination for history and culture enthusiasts.
+Afternoon: Enjoying scenic views at the OLA Petrol Station.
+Evening: Relaxing with a cup of tea and pastries at Down Town, a popular tea room.
+Night: Engaging in cultural immersion at Soltane Elchem, a highly-rated family restaurant offering delicious food in a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mosaique, located in Ksar Hellal (35.6447353, 10.8880694), is a highly-rated cafe with a 5.0 rating based on one review. It's conveniently situated at MV2W+73, making it easily accessible to locals and visitors alike. Despite limited information available, Cafe Mosaique has established itself as a popular spot for coffee lovers.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.
+Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9117,12 +12806,60 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in Ksar Hellal and looking for a bus station, check out Station Louage located at Station Louage, Ksar Hellal. This top-rated destination is perfect for those seeking a convenient transportation hub. With a rating of 3.6, it's a popular spot for travelers. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website or call them at the provided number.</t>
+          <t>The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where is the top-rated bus station in Ksar Hellal known for its convenience and a hub for travelers?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Hellal Garden
+Mid-Morning: Trying local cuisine at Chaneb Food shnb fwd
+Midday: Visiting Maison de Congrès museum
+Afternoon: Relaxing with a tea at Down Town tea room
+Evening: Enjoying a delicious pizza at Target Pizza
+Night: Experiencing cultural immersion at Soltane Elchem family restaurant</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe le colisee is a cafe located in Ksar Hellal, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and other snacks. The cafe is open from 3:00am to midnight, seven days a week. It is located at 35.6462461 latitude and 10.886155 longitude.
+Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."
+Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.
+Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).
+Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.
+Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.
+Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.
+Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).
+Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.
+Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.
+Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.
+**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.
+Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).
+OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
